--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1709494.818276727</v>
+        <v>1706603.531906911</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4484170.635670523</v>
+        <v>4484170.635670522</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414.9259861736056</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.8373642115171</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.4032421061438</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.07678819616169</v>
       </c>
       <c r="T11" t="n">
-        <v>205.2014252128393</v>
+        <v>210.4000274259056</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>400.5600028696495</v>
+        <v>72.96999231636661</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>187.5404145499359</v>
       </c>
       <c r="C13" t="n">
-        <v>169.528943014864</v>
+        <v>169.5289430148641</v>
       </c>
       <c r="D13" t="n">
-        <v>160.9597106694879</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8222293136659</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>169.4192620081761</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>19.36046362893843</v>
       </c>
       <c r="H13" t="n">
-        <v>134.7173017759227</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>74.65046620924186</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86271321189509</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.1514190761976</v>
+        <v>154.1514190761977</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>276.6162732847449</v>
       </c>
       <c r="V13" t="n">
         <v>278.1704582430423</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.3799853142031</v>
       </c>
       <c r="X13" t="n">
-        <v>207.822480017346</v>
+        <v>239.4143631136438</v>
       </c>
       <c r="Y13" t="n">
-        <v>223.3554461521463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.19563239398491</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>421.9078282118238</v>
       </c>
       <c r="D14" t="n">
-        <v>418.3358001318406</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>420.9932759786119</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.1490455174846</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.8373642115171</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.07678819616169</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>391.7035417276475</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>70.90701436911093</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187.5404145499359</v>
+        <v>71.56148491445344</v>
       </c>
       <c r="C16" t="n">
-        <v>169.528943014864</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>160.9597106694879</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8222293136659</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>169.4192620081761</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0925075263806</v>
       </c>
       <c r="H16" t="n">
         <v>134.7173017759227</v>
       </c>
       <c r="I16" t="n">
-        <v>74.65046620924186</v>
+        <v>74.65046620924187</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>10.86271321189511</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.1514190761977</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>276.6162732847449</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.1704582430423</v>
       </c>
       <c r="W16" t="n">
-        <v>204.9715352555602</v>
+        <v>271.3799853142031</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>223.3554461521463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>414.9259861736056</v>
+        <v>414.9259861736057</v>
       </c>
       <c r="C17" t="n">
         <v>421.9078282118238</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>418.3358001318406</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>420.9932759786119</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.1490455174846</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.8373642115171</v>
       </c>
       <c r="H17" t="n">
-        <v>276.4032421061438</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.07678819616169</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.9087127865491</v>
+        <v>254.9087127865492</v>
       </c>
       <c r="V17" t="n">
-        <v>353.1906262500039</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>385.7640772141959</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>406.8789043689211</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>400.5600028696495</v>
+        <v>102.4045787732976</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>187.5404145499359</v>
       </c>
       <c r="C19" t="n">
-        <v>169.528943014864</v>
+        <v>169.5289430148641</v>
       </c>
       <c r="D19" t="n">
         <v>160.9597106694879</v>
@@ -2016,13 +2016,13 @@
         <v>169.4192620081761</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0925075263805</v>
+        <v>163.0925075263806</v>
       </c>
       <c r="H19" t="n">
         <v>134.7173017759227</v>
       </c>
       <c r="I19" t="n">
-        <v>74.65046620924184</v>
+        <v>74.65046620924187</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.8627132118954</v>
+        <v>10.86271321189511</v>
       </c>
       <c r="S19" t="n">
-        <v>154.1514190761976</v>
+        <v>154.1514190761977</v>
       </c>
       <c r="T19" t="n">
         <v>236.857886517344</v>
       </c>
       <c r="U19" t="n">
-        <v>276.6162732847449</v>
+        <v>276.616273284744</v>
       </c>
       <c r="V19" t="n">
         <v>278.1704582430423</v>
       </c>
       <c r="W19" t="n">
-        <v>271.379985314203</v>
+        <v>271.3799853142031</v>
       </c>
       <c r="X19" t="n">
         <v>239.4143631136438</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>414.9259861736057</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>420.9932759786119</v>
+        <v>143.0045048097618</v>
       </c>
       <c r="F20" t="n">
         <v>420.1490455174846</v>
       </c>
       <c r="G20" t="n">
-        <v>397.837364211517</v>
+        <v>397.8373642115171</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4317443243499</v>
+        <v>276.4032421061438</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.07678819616167</v>
+        <v>63.07678819616169</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.9087127865491</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>187.5404145499359</v>
       </c>
       <c r="C22" t="n">
-        <v>169.528943014864</v>
+        <v>169.5289430148641</v>
       </c>
       <c r="D22" t="n">
         <v>160.9597106694879</v>
@@ -2253,13 +2253,13 @@
         <v>169.4192620081761</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0925075263805</v>
+        <v>163.0925075263806</v>
       </c>
       <c r="H22" t="n">
         <v>134.7173017759227</v>
       </c>
       <c r="I22" t="n">
-        <v>74.65046620924184</v>
+        <v>74.65046620924187</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.86271321189509</v>
+        <v>10.86271321189511</v>
       </c>
       <c r="S22" t="n">
-        <v>154.1514190761981</v>
+        <v>154.1514190761977</v>
       </c>
       <c r="T22" t="n">
         <v>236.857886517344</v>
       </c>
       <c r="U22" t="n">
-        <v>276.6162732847449</v>
+        <v>276.6162732847453</v>
       </c>
       <c r="V22" t="n">
         <v>278.1704582430423</v>
       </c>
       <c r="W22" t="n">
-        <v>271.379985314203</v>
+        <v>271.3799853142031</v>
       </c>
       <c r="X22" t="n">
         <v>239.4143631136438</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>414.9259861736056</v>
+        <v>414.9259861736057</v>
       </c>
       <c r="C23" t="n">
         <v>421.9078282118238</v>
@@ -2332,7 +2332,7 @@
         <v>420.1490455174846</v>
       </c>
       <c r="G23" t="n">
-        <v>397.837364211517</v>
+        <v>397.8373642115171</v>
       </c>
       <c r="H23" t="n">
         <v>276.4032421061438</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.07678819616167</v>
+        <v>63.07678819616169</v>
       </c>
       <c r="T23" t="n">
-        <v>39.24984368467526</v>
+        <v>210.4000274259056</v>
       </c>
       <c r="U23" t="n">
-        <v>254.9087127865491</v>
+        <v>83.75852904531962</v>
       </c>
       <c r="V23" t="n">
         <v>353.1906262500039</v>
@@ -2478,7 +2478,7 @@
         <v>187.5404145499359</v>
       </c>
       <c r="C25" t="n">
-        <v>169.528943014864</v>
+        <v>169.5289430148641</v>
       </c>
       <c r="D25" t="n">
         <v>160.9597106694879</v>
@@ -2490,13 +2490,13 @@
         <v>169.4192620081761</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0925075263805</v>
+        <v>163.0925075263806</v>
       </c>
       <c r="H25" t="n">
         <v>134.7173017759227</v>
       </c>
       <c r="I25" t="n">
-        <v>74.65046620924186</v>
+        <v>74.65046620924187</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.86271321189509</v>
+        <v>10.86271321189511</v>
       </c>
       <c r="S25" t="n">
-        <v>154.1514190761976</v>
+        <v>154.1514190761977</v>
       </c>
       <c r="T25" t="n">
         <v>236.857886517344</v>
@@ -2538,7 +2538,7 @@
         <v>278.1704582430423</v>
       </c>
       <c r="W25" t="n">
-        <v>271.379985314203</v>
+        <v>271.3799853142031</v>
       </c>
       <c r="X25" t="n">
         <v>239.4143631136438</v>
@@ -2572,7 +2572,7 @@
         <v>398.0754397710474</v>
       </c>
       <c r="H26" t="n">
-        <v>276.6413176656741</v>
+        <v>102.1580760910213</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.31486375569203</v>
       </c>
       <c r="T26" t="n">
-        <v>210.638102985436</v>
+        <v>210.6381029854359</v>
       </c>
       <c r="U26" t="n">
-        <v>143.9784105271179</v>
+        <v>255.1467883460795</v>
       </c>
       <c r="V26" t="n">
         <v>353.4287018095343</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>187.7784901094663</v>
+        <v>187.7784901094662</v>
       </c>
       <c r="C28" t="n">
         <v>169.7670185743944</v>
       </c>
       <c r="D28" t="n">
-        <v>161.1977862290183</v>
+        <v>161.1977862290182</v>
       </c>
       <c r="E28" t="n">
-        <v>164.0603048731963</v>
+        <v>164.0603048731962</v>
       </c>
       <c r="F28" t="n">
-        <v>169.6573375677065</v>
+        <v>169.6573375677064</v>
       </c>
       <c r="G28" t="n">
         <v>163.3305830859109</v>
@@ -2733,7 +2733,7 @@
         <v>134.9553773354531</v>
       </c>
       <c r="I28" t="n">
-        <v>74.88854176877223</v>
+        <v>74.88854176877221</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.10078877142548</v>
+        <v>11.10078877142545</v>
       </c>
       <c r="S28" t="n">
         <v>154.389494635728</v>
@@ -2781,7 +2781,7 @@
         <v>239.6524386731742</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.5935217116767</v>
+        <v>223.5935217116766</v>
       </c>
     </row>
     <row r="29">
@@ -2845,10 +2845,10 @@
         <v>63.31486375569203</v>
       </c>
       <c r="T29" t="n">
-        <v>210.6381029854359</v>
+        <v>36.15486141078337</v>
       </c>
       <c r="U29" t="n">
-        <v>80.66354677142593</v>
+        <v>255.1467883460795</v>
       </c>
       <c r="V29" t="n">
         <v>353.4287018095343</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>187.7784901094662</v>
+        <v>187.7784901094663</v>
       </c>
       <c r="C31" t="n">
         <v>169.7670185743944</v>
       </c>
       <c r="D31" t="n">
-        <v>161.1977862290182</v>
+        <v>161.1977862290183</v>
       </c>
       <c r="E31" t="n">
-        <v>164.0603048731962</v>
+        <v>164.0603048731963</v>
       </c>
       <c r="F31" t="n">
-        <v>169.6573375677064</v>
+        <v>169.6573375677065</v>
       </c>
       <c r="G31" t="n">
         <v>163.3305830859109</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.1007887714254</v>
+        <v>11.10078877142546</v>
       </c>
       <c r="S31" t="n">
-        <v>154.389494635728</v>
+        <v>154.3894946357281</v>
       </c>
       <c r="T31" t="n">
         <v>237.0959620768743</v>
@@ -3018,7 +3018,7 @@
         <v>239.6524386731742</v>
       </c>
       <c r="Y31" t="n">
-        <v>223.5935217116766</v>
+        <v>223.5935217116767</v>
       </c>
     </row>
     <row r="32">
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>63.31486375569203</v>
       </c>
       <c r="T32" t="n">
-        <v>210.638102985436</v>
+        <v>36.15486141078337</v>
       </c>
       <c r="U32" t="n">
         <v>255.1467883460795</v>
       </c>
       <c r="V32" t="n">
-        <v>242.2603239905727</v>
+        <v>353.4287018095343</v>
       </c>
       <c r="W32" t="n">
         <v>391.9416172871778</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>187.7784901094663</v>
+        <v>187.7784901094662</v>
       </c>
       <c r="C34" t="n">
         <v>169.7670185743944</v>
       </c>
       <c r="D34" t="n">
-        <v>161.1977862290183</v>
+        <v>161.1977862290182</v>
       </c>
       <c r="E34" t="n">
-        <v>164.0603048731963</v>
+        <v>164.0603048731962</v>
       </c>
       <c r="F34" t="n">
-        <v>169.6573375677065</v>
+        <v>169.6573375677064</v>
       </c>
       <c r="G34" t="n">
         <v>163.3305830859109</v>
@@ -3207,7 +3207,7 @@
         <v>134.9553773354531</v>
       </c>
       <c r="I34" t="n">
-        <v>74.88854176877223</v>
+        <v>74.88854176877221</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.10078877142548</v>
+        <v>11.10078877142546</v>
       </c>
       <c r="S34" t="n">
         <v>154.389494635728</v>
@@ -3255,7 +3255,7 @@
         <v>239.6524386731742</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.5935217116767</v>
+        <v>223.5935217116766</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.164061733136</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.1459037713541</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>418.573875691371</v>
@@ -3277,7 +3277,7 @@
         <v>421.2313515381423</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>387.013276155138</v>
       </c>
       <c r="G35" t="n">
         <v>398.0754397710474</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.31486375569203</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.6381029854359</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.1467883460795</v>
       </c>
       <c r="V35" t="n">
-        <v>40.29015026021051</v>
+        <v>353.4287018095343</v>
       </c>
       <c r="W35" t="n">
-        <v>391.9416172871778</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.1169799284515</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.7784901094663</v>
+        <v>187.7784901094662</v>
       </c>
       <c r="C37" t="n">
         <v>169.7670185743944</v>
       </c>
       <c r="D37" t="n">
-        <v>161.1977862290183</v>
+        <v>161.1977862290182</v>
       </c>
       <c r="E37" t="n">
-        <v>164.0603048731963</v>
+        <v>164.0603048731962</v>
       </c>
       <c r="F37" t="n">
-        <v>169.6573375677065</v>
+        <v>169.6573375677064</v>
       </c>
       <c r="G37" t="n">
         <v>163.3305830859109</v>
@@ -3444,7 +3444,7 @@
         <v>134.9553773354531</v>
       </c>
       <c r="I37" t="n">
-        <v>74.88854176877223</v>
+        <v>74.88854176877221</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.10078877142548</v>
+        <v>7.291579818939439</v>
       </c>
       <c r="S37" t="n">
         <v>154.389494635728</v>
@@ -3492,7 +3492,7 @@
         <v>239.6524386731742</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.7843127591891</v>
+        <v>223.5935217116766</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.164061733136</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.1459037713541</v>
+        <v>400.375393410768</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>421.2313515381423</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.387121077015</v>
       </c>
       <c r="G38" t="n">
         <v>398.0754397710474</v>
       </c>
       <c r="H38" t="n">
-        <v>276.6413176656741</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.31486375569204</v>
+        <v>63.31486375569203</v>
       </c>
       <c r="T38" t="n">
-        <v>210.638102985436</v>
+        <v>210.6381029854359</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.1467883460795</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.4287018095343</v>
       </c>
       <c r="W38" t="n">
         <v>391.9416172871778</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.3867214732317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.7784901094663</v>
+        <v>187.7784901094662</v>
       </c>
       <c r="C40" t="n">
         <v>169.7670185743944</v>
       </c>
       <c r="D40" t="n">
-        <v>161.1977862290183</v>
+        <v>161.1977862290182</v>
       </c>
       <c r="E40" t="n">
-        <v>164.0603048731963</v>
+        <v>164.0603048731962</v>
       </c>
       <c r="F40" t="n">
-        <v>169.6573375677065</v>
+        <v>169.6573375677064</v>
       </c>
       <c r="G40" t="n">
         <v>163.3305830859109</v>
@@ -3681,7 +3681,7 @@
         <v>134.9553773354531</v>
       </c>
       <c r="I40" t="n">
-        <v>74.88854176877223</v>
+        <v>74.88854176877221</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.291579818938989</v>
+        <v>7.29157981893989</v>
       </c>
       <c r="S40" t="n">
         <v>154.389494635728</v>
@@ -3729,7 +3729,7 @@
         <v>239.6524386731742</v>
       </c>
       <c r="Y40" t="n">
-        <v>223.5935217116767</v>
+        <v>223.5935217116766</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>37.75135500956011</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.5612586865261</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.80068267117076</v>
       </c>
       <c r="T41" t="n">
-        <v>123.1463157564466</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.00181935927806</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.8164020013896</v>
       </c>
       <c r="H43" t="n">
-        <v>135.4411962509318</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>154.8753135512067</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.5817809923531</v>
       </c>
       <c r="U43" t="n">
         <v>277.340167759754</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>157.179782349993</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.5612586865261</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>277.1271365811529</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.80068267117076</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>81.30005449394882</v>
+        <v>189.5696836537883</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>49.68337859168955</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.19096526869401</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>11.58660768690419</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>277.340167759754</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.39623958428666</v>
+        <v>717.4473570768735</v>
       </c>
       <c r="C11" t="n">
-        <v>36.39623958428666</v>
+        <v>717.4473570768735</v>
       </c>
       <c r="D11" t="n">
-        <v>36.39623958428666</v>
+        <v>717.4473570768735</v>
       </c>
       <c r="E11" t="n">
-        <v>36.39623958428666</v>
+        <v>717.4473570768735</v>
       </c>
       <c r="F11" t="n">
-        <v>36.39623958428666</v>
+        <v>717.4473570768735</v>
       </c>
       <c r="G11" t="n">
-        <v>36.39623958428666</v>
+        <v>315.5914336308966</v>
       </c>
       <c r="H11" t="n">
-        <v>36.39623958428666</v>
+        <v>36.39623958428667</v>
       </c>
       <c r="I11" t="n">
-        <v>68.39111749007058</v>
+        <v>68.39111749007043</v>
       </c>
       <c r="J11" t="n">
-        <v>184.9994400002567</v>
+        <v>184.9994400002565</v>
       </c>
       <c r="K11" t="n">
-        <v>368.010097068717</v>
+        <v>368.0100970687174</v>
       </c>
       <c r="L11" t="n">
-        <v>601.0475363733431</v>
+        <v>601.0475363733435</v>
       </c>
       <c r="M11" t="n">
-        <v>865.492872691868</v>
+        <v>865.4928726918685</v>
       </c>
       <c r="N11" t="n">
         <v>1134.966954882675</v>
@@ -5059,7 +5059,7 @@
         <v>1387.256709357416</v>
       </c>
       <c r="P11" t="n">
-        <v>1596.973765232266</v>
+        <v>1596.973765232267</v>
       </c>
       <c r="Q11" t="n">
         <v>1746.634468991229</v>
@@ -5068,25 +5068,25 @@
         <v>1819.811979214333</v>
       </c>
       <c r="S11" t="n">
-        <v>1819.811979214333</v>
+        <v>1756.098051743463</v>
       </c>
       <c r="T11" t="n">
-        <v>1612.537812332677</v>
+        <v>1543.572771515275</v>
       </c>
       <c r="U11" t="n">
-        <v>1612.537812332677</v>
+        <v>1543.572771515275</v>
       </c>
       <c r="V11" t="n">
-        <v>1255.77960399934</v>
+        <v>1186.814563181938</v>
       </c>
       <c r="W11" t="n">
-        <v>860.1194608400999</v>
+        <v>791.1544200226983</v>
       </c>
       <c r="X11" t="n">
-        <v>860.1194608400999</v>
+        <v>791.1544200226983</v>
       </c>
       <c r="Y11" t="n">
-        <v>455.5133973354035</v>
+        <v>717.4473570768735</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>80.71934597760631</v>
       </c>
       <c r="H12" t="n">
-        <v>36.39623958428666</v>
+        <v>36.39623958428667</v>
       </c>
       <c r="I12" t="n">
         <v>75.47400624666039</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>747.1827557289154</v>
+        <v>398.3241877175984</v>
       </c>
       <c r="C13" t="n">
-        <v>575.9413991482446</v>
+        <v>227.0828311369276</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3558328154285</v>
+        <v>227.0828311369276</v>
       </c>
       <c r="E13" t="n">
-        <v>247.8788335086953</v>
+        <v>227.0828311369276</v>
       </c>
       <c r="F13" t="n">
-        <v>247.8788335086953</v>
+        <v>55.95226345190125</v>
       </c>
       <c r="G13" t="n">
-        <v>247.8788335086953</v>
+        <v>36.39623958428667</v>
       </c>
       <c r="H13" t="n">
-        <v>111.8007509067532</v>
+        <v>36.39623958428667</v>
       </c>
       <c r="I13" t="n">
-        <v>36.39623958428666</v>
+        <v>36.39623958428667</v>
       </c>
       <c r="J13" t="n">
-        <v>70.42026568661026</v>
+        <v>70.42026568661028</v>
       </c>
       <c r="K13" t="n">
-        <v>386.4331976944558</v>
+        <v>139.1505885804337</v>
       </c>
       <c r="L13" t="n">
-        <v>749.8245999419476</v>
+        <v>231.9614309891704</v>
       </c>
       <c r="M13" t="n">
-        <v>848.210091211429</v>
+        <v>682.3648958447179</v>
       </c>
       <c r="N13" t="n">
-        <v>945.5330433606243</v>
+        <v>1106.915750556033</v>
       </c>
       <c r="O13" t="n">
-        <v>1395.936508216172</v>
+        <v>1557.319215411581</v>
       </c>
       <c r="P13" t="n">
-        <v>1779.690089542605</v>
+        <v>1628.316592164706</v>
       </c>
       <c r="Q13" t="n">
         <v>1819.811979214333</v>
       </c>
       <c r="R13" t="n">
-        <v>1808.83954162656</v>
+        <v>1819.811979214333</v>
       </c>
       <c r="S13" t="n">
-        <v>1653.131037509189</v>
+        <v>1664.103475096962</v>
       </c>
       <c r="T13" t="n">
-        <v>1653.131037509189</v>
+        <v>1664.103475096962</v>
       </c>
       <c r="U13" t="n">
-        <v>1653.131037509189</v>
+        <v>1384.693098041664</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.150776657631</v>
+        <v>1103.712837190106</v>
       </c>
       <c r="W13" t="n">
-        <v>1372.150776657631</v>
+        <v>829.5916399030325</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.229079670413</v>
+        <v>587.7589498892509</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.6175179005678</v>
+        <v>587.7589498892509</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1734.765885887075</v>
+        <v>1288.814661746737</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.596362440789</v>
+        <v>862.6451383004501</v>
       </c>
       <c r="D14" t="n">
-        <v>886.0349481662024</v>
+        <v>862.6451383004501</v>
       </c>
       <c r="E14" t="n">
-        <v>460.7892148544732</v>
+        <v>862.6451383004501</v>
       </c>
       <c r="F14" t="n">
-        <v>36.39623958428666</v>
+        <v>438.2521630302635</v>
       </c>
       <c r="G14" t="n">
         <v>36.39623958428666</v>
@@ -5275,19 +5275,19 @@
         <v>36.39623958428666</v>
       </c>
       <c r="I14" t="n">
-        <v>68.39111749007058</v>
+        <v>68.39111749007043</v>
       </c>
       <c r="J14" t="n">
-        <v>184.9994400002567</v>
+        <v>184.9994400002565</v>
       </c>
       <c r="K14" t="n">
-        <v>368.010097068717</v>
+        <v>368.0100970687171</v>
       </c>
       <c r="L14" t="n">
         <v>601.0475363733431</v>
       </c>
       <c r="M14" t="n">
-        <v>865.492872691868</v>
+        <v>865.4928726918682</v>
       </c>
       <c r="N14" t="n">
         <v>1134.966954882675</v>
@@ -5305,25 +5305,25 @@
         <v>1819.811979214333</v>
       </c>
       <c r="S14" t="n">
-        <v>1819.811979214333</v>
+        <v>1756.098051743463</v>
       </c>
       <c r="T14" t="n">
-        <v>1819.811979214333</v>
+        <v>1756.098051743463</v>
       </c>
       <c r="U14" t="n">
-        <v>1819.811979214333</v>
+        <v>1756.098051743463</v>
       </c>
       <c r="V14" t="n">
-        <v>1819.811979214333</v>
+        <v>1756.098051743463</v>
       </c>
       <c r="W14" t="n">
-        <v>1819.811979214333</v>
+        <v>1360.437908584223</v>
       </c>
       <c r="X14" t="n">
-        <v>1819.811979214333</v>
+        <v>1288.814661746737</v>
       </c>
       <c r="Y14" t="n">
-        <v>1819.811979214333</v>
+        <v>1288.814661746737</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>36.39623958428666</v>
       </c>
       <c r="I15" t="n">
-        <v>52.01670040224855</v>
+        <v>75.47400624666039</v>
       </c>
       <c r="J15" t="n">
-        <v>118.4099183118218</v>
+        <v>433.9697166258247</v>
       </c>
       <c r="K15" t="n">
-        <v>457.8279154939279</v>
+        <v>560.1464600072458</v>
       </c>
       <c r="L15" t="n">
-        <v>908.2313803494753</v>
+        <v>737.334075598549</v>
       </c>
       <c r="M15" t="n">
-        <v>1118.146461422612</v>
+        <v>947.249156671686</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.958774868746</v>
+        <v>1165.06147011782</v>
       </c>
       <c r="O15" t="n">
-        <v>1531.603771862722</v>
+        <v>1360.706467111795</v>
       </c>
       <c r="P15" t="n">
-        <v>1685.484507053471</v>
+        <v>1514.587202302544</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.237833947159</v>
+        <v>1674.782333662253</v>
       </c>
       <c r="R15" t="n">
         <v>1813.842431913037</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>918.3133234139417</v>
+        <v>746.3348741188415</v>
       </c>
       <c r="C16" t="n">
-        <v>747.0719668332709</v>
+        <v>746.3348741188415</v>
       </c>
       <c r="D16" t="n">
-        <v>584.4864005004549</v>
+        <v>583.7493077860254</v>
       </c>
       <c r="E16" t="n">
-        <v>419.0094011937217</v>
+        <v>583.7493077860254</v>
       </c>
       <c r="F16" t="n">
-        <v>247.8788335086953</v>
+        <v>412.618740100999</v>
       </c>
       <c r="G16" t="n">
-        <v>247.8788335086953</v>
+        <v>247.8788335086954</v>
       </c>
       <c r="H16" t="n">
         <v>111.8007509067532</v>
@@ -5436,52 +5436,52 @@
         <v>36.39623958428666</v>
       </c>
       <c r="J16" t="n">
-        <v>70.42026568661026</v>
+        <v>148.3419823348311</v>
       </c>
       <c r="K16" t="n">
-        <v>299.4211350864002</v>
+        <v>217.0723052286546</v>
       </c>
       <c r="L16" t="n">
-        <v>749.8245999419476</v>
+        <v>309.8831476373912</v>
       </c>
       <c r="M16" t="n">
-        <v>848.210091211429</v>
+        <v>760.2866124929385</v>
       </c>
       <c r="N16" t="n">
-        <v>945.5330433606243</v>
+        <v>1210.690077348486</v>
       </c>
       <c r="O16" t="n">
-        <v>1395.936508216172</v>
+        <v>1557.31921541158</v>
       </c>
       <c r="P16" t="n">
-        <v>1779.690089542605</v>
+        <v>1628.316592164706</v>
       </c>
       <c r="Q16" t="n">
         <v>1819.811979214333</v>
       </c>
       <c r="R16" t="n">
-        <v>1819.811979214333</v>
+        <v>1808.83954162656</v>
       </c>
       <c r="S16" t="n">
-        <v>1819.811979214333</v>
+        <v>1653.131037509189</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.811979214333</v>
+        <v>1653.131037509189</v>
       </c>
       <c r="U16" t="n">
-        <v>1540.401602159035</v>
+        <v>1373.720660453891</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.401602159035</v>
+        <v>1092.740399602333</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.359647355439</v>
+        <v>818.6192023152591</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.359647355439</v>
+        <v>818.6192023152591</v>
       </c>
       <c r="Y16" t="n">
-        <v>1107.748085585594</v>
+        <v>818.6192023152591</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4459250785674</v>
+        <v>2160.306777334436</v>
       </c>
       <c r="C17" t="n">
-        <v>339.2764016322807</v>
+        <v>1734.13725388815</v>
       </c>
       <c r="D17" t="n">
-        <v>339.2764016322807</v>
+        <v>1311.575839613563</v>
       </c>
       <c r="E17" t="n">
-        <v>339.2764016322807</v>
+        <v>886.3301063018342</v>
       </c>
       <c r="F17" t="n">
-        <v>339.2764016322807</v>
+        <v>461.9371310316477</v>
       </c>
       <c r="G17" t="n">
-        <v>339.2764016322807</v>
+        <v>60.08120758567082</v>
       </c>
       <c r="H17" t="n">
-        <v>60.08120758567085</v>
+        <v>60.08120758567082</v>
       </c>
       <c r="I17" t="n">
-        <v>92.07608549145479</v>
+        <v>92.07608549145476</v>
       </c>
       <c r="J17" t="n">
-        <v>600.4136267092671</v>
+        <v>600.413626709267</v>
       </c>
       <c r="K17" t="n">
-        <v>783.4242837777276</v>
+        <v>1343.918570581943</v>
       </c>
       <c r="L17" t="n">
-        <v>1016.461723082354</v>
+        <v>1633.0572781648</v>
       </c>
       <c r="M17" t="n">
-        <v>1280.907059400879</v>
+        <v>1897.502614483325</v>
       </c>
       <c r="N17" t="n">
-        <v>1550.381141591685</v>
+        <v>2166.976696674132</v>
       </c>
       <c r="O17" t="n">
-        <v>1802.670896066426</v>
+        <v>2419.266451148873</v>
       </c>
       <c r="P17" t="n">
-        <v>2137.13459966099</v>
+        <v>2628.983507023724</v>
       </c>
       <c r="Q17" t="n">
-        <v>2778.644210782687</v>
+        <v>2778.644210782686</v>
       </c>
       <c r="R17" t="n">
-        <v>3004.060379283542</v>
+        <v>3004.060379283541</v>
       </c>
       <c r="S17" t="n">
-        <v>3004.060379283542</v>
+        <v>2940.346451812671</v>
       </c>
       <c r="T17" t="n">
-        <v>3004.060379283542</v>
+        <v>2940.346451812671</v>
       </c>
       <c r="U17" t="n">
-        <v>2746.576831014301</v>
+        <v>2682.86290354343</v>
       </c>
       <c r="V17" t="n">
-        <v>2389.818622680963</v>
+        <v>2682.86290354343</v>
       </c>
       <c r="W17" t="n">
-        <v>2000.15793862622</v>
+        <v>2682.86290354343</v>
       </c>
       <c r="X17" t="n">
-        <v>1589.169146334381</v>
+        <v>2682.86290354343</v>
       </c>
       <c r="Y17" t="n">
-        <v>1184.563082829684</v>
+        <v>2579.423935085553</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>617.2143452875072</v>
+        <v>617.2143452875071</v>
       </c>
       <c r="C18" t="n">
-        <v>499.7084418050119</v>
+        <v>499.7084418050118</v>
       </c>
       <c r="D18" t="n">
         <v>395.8684833202969</v>
       </c>
       <c r="E18" t="n">
-        <v>291.1665495932342</v>
+        <v>291.1665495932341</v>
       </c>
       <c r="F18" t="n">
         <v>197.5207192761383</v>
@@ -5588,13 +5588,13 @@
         <v>104.4043139789905</v>
       </c>
       <c r="H18" t="n">
-        <v>60.08120758567085</v>
+        <v>60.08120758567082</v>
       </c>
       <c r="I18" t="n">
-        <v>99.15897424804459</v>
+        <v>99.15897424804456</v>
       </c>
       <c r="J18" t="n">
-        <v>457.6546846272089</v>
+        <v>457.6546846272088</v>
       </c>
       <c r="K18" t="n">
         <v>583.8314280086299</v>
@@ -5612,13 +5612,13 @@
         <v>1384.391435113179</v>
       </c>
       <c r="P18" t="n">
-        <v>1603.71397476995</v>
+        <v>1538.272170303929</v>
       </c>
       <c r="Q18" t="n">
         <v>1698.467301663637</v>
       </c>
       <c r="R18" t="n">
-        <v>1837.527399914422</v>
+        <v>1837.527399914421</v>
       </c>
       <c r="S18" t="n">
         <v>1773.61432381351</v>
@@ -5633,13 +5633,13 @@
         <v>1245.832966754397</v>
       </c>
       <c r="W18" t="n">
-        <v>1049.311589587615</v>
+        <v>1049.311589587614</v>
       </c>
       <c r="X18" t="n">
-        <v>885.8342433542775</v>
+        <v>885.8342433542774</v>
       </c>
       <c r="Y18" t="n">
-        <v>746.1413547075699</v>
+        <v>746.1413547075698</v>
       </c>
     </row>
     <row r="19">
@@ -5652,25 +5652,25 @@
         <v>1106.73819800763</v>
       </c>
       <c r="C19" t="n">
-        <v>935.4968414269589</v>
+        <v>935.4968414269592</v>
       </c>
       <c r="D19" t="n">
-        <v>772.9112750941429</v>
+        <v>772.9112750941431</v>
       </c>
       <c r="E19" t="n">
-        <v>607.4342757874095</v>
+        <v>607.4342757874099</v>
       </c>
       <c r="F19" t="n">
-        <v>436.3037081023831</v>
+        <v>436.3037081023836</v>
       </c>
       <c r="G19" t="n">
-        <v>271.5638015100795</v>
+        <v>271.5638015100799</v>
       </c>
       <c r="H19" t="n">
         <v>135.4857189081374</v>
       </c>
       <c r="I19" t="n">
-        <v>60.08120758567085</v>
+        <v>60.08120758567082</v>
       </c>
       <c r="J19" t="n">
         <v>172.0269503362153</v>
@@ -5679,22 +5679,22 @@
         <v>488.0398823440608</v>
       </c>
       <c r="L19" t="n">
-        <v>957.2396183439628</v>
+        <v>957.2396183439623</v>
       </c>
       <c r="M19" t="n">
-        <v>1469.160590076266</v>
+        <v>1469.160590076264</v>
       </c>
       <c r="N19" t="n">
-        <v>1964.516465067341</v>
+        <v>1964.51646506734</v>
       </c>
       <c r="O19" t="n">
-        <v>2428.811410907482</v>
+        <v>2428.811410907481</v>
       </c>
       <c r="P19" t="n">
-        <v>2812.564992233915</v>
+        <v>2812.564992233914</v>
       </c>
       <c r="Q19" t="n">
-        <v>3004.060379283542</v>
+        <v>3004.060379283541</v>
       </c>
       <c r="R19" t="n">
         <v>2993.087941695769</v>
@@ -5706,13 +5706,13 @@
         <v>2598.129047156838</v>
       </c>
       <c r="U19" t="n">
-        <v>2318.71867010154</v>
+        <v>2318.718670101541</v>
       </c>
       <c r="V19" t="n">
-        <v>2037.738409249982</v>
+        <v>2037.738409249983</v>
       </c>
       <c r="W19" t="n">
-        <v>1763.617211962908</v>
+        <v>1763.617211962909</v>
       </c>
       <c r="X19" t="n">
         <v>1521.784521949127</v>
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1471.607904587654</v>
+        <v>1309.974295105779</v>
       </c>
       <c r="C20" t="n">
-        <v>1471.607904587654</v>
+        <v>1309.974295105779</v>
       </c>
       <c r="D20" t="n">
-        <v>1471.607904587654</v>
+        <v>1309.974295105779</v>
       </c>
       <c r="E20" t="n">
-        <v>1046.362171275925</v>
+        <v>1165.525300348444</v>
       </c>
       <c r="F20" t="n">
-        <v>621.9691960057385</v>
+        <v>741.1323250782576</v>
       </c>
       <c r="G20" t="n">
-        <v>220.1132725597616</v>
+        <v>339.2764016322807</v>
       </c>
       <c r="H20" t="n">
-        <v>60.08120758567084</v>
+        <v>60.08120758567085</v>
       </c>
       <c r="I20" t="n">
-        <v>92.07608549145478</v>
+        <v>92.07608549145479</v>
       </c>
       <c r="J20" t="n">
         <v>600.4136267092671</v>
       </c>
       <c r="K20" t="n">
-        <v>783.4242837777276</v>
+        <v>908.1709314974404</v>
       </c>
       <c r="L20" t="n">
-        <v>1016.461723082354</v>
+        <v>1141.208370802066</v>
       </c>
       <c r="M20" t="n">
-        <v>1280.907059400879</v>
+        <v>1405.653707120592</v>
       </c>
       <c r="N20" t="n">
-        <v>1550.381141591685</v>
+        <v>1675.127789311398</v>
       </c>
       <c r="O20" t="n">
-        <v>1802.670896066426</v>
+        <v>1927.417543786139</v>
       </c>
       <c r="P20" t="n">
-        <v>2137.134599660989</v>
+        <v>2137.13459966099</v>
       </c>
       <c r="Q20" t="n">
         <v>2778.644210782687</v>
@@ -5785,19 +5785,19 @@
         <v>2940.346451812672</v>
       </c>
       <c r="U20" t="n">
-        <v>2682.86290354343</v>
+        <v>2940.346451812672</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.86290354343</v>
+        <v>2940.346451812672</v>
       </c>
       <c r="W20" t="n">
-        <v>2287.20276038419</v>
+        <v>2544.686308653432</v>
       </c>
       <c r="X20" t="n">
-        <v>1876.213968092351</v>
+        <v>2133.697516361593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1471.607904587654</v>
+        <v>1729.091452856896</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>617.2143452875071</v>
+        <v>617.2143452875072</v>
       </c>
       <c r="C21" t="n">
-        <v>499.7084418050118</v>
+        <v>499.7084418050119</v>
       </c>
       <c r="D21" t="n">
         <v>395.8684833202969</v>
       </c>
       <c r="E21" t="n">
-        <v>291.1665495932341</v>
+        <v>291.1665495932342</v>
       </c>
       <c r="F21" t="n">
         <v>197.5207192761383</v>
@@ -5825,37 +5825,37 @@
         <v>104.4043139789905</v>
       </c>
       <c r="H21" t="n">
-        <v>60.08120758567084</v>
+        <v>60.08120758567085</v>
       </c>
       <c r="I21" t="n">
-        <v>75.70166840363272</v>
+        <v>99.15897424804459</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0948863132059</v>
+        <v>457.6546846272089</v>
       </c>
       <c r="K21" t="n">
-        <v>754.7287327595564</v>
+        <v>649.2732324746507</v>
       </c>
       <c r="L21" t="n">
-        <v>931.9163483508596</v>
+        <v>826.460848065954</v>
       </c>
       <c r="M21" t="n">
-        <v>1141.831429423997</v>
+        <v>1036.375929139091</v>
       </c>
       <c r="N21" t="n">
-        <v>1359.643742870131</v>
+        <v>1254.188242585225</v>
       </c>
       <c r="O21" t="n">
-        <v>1555.288739864106</v>
+        <v>1449.8332395792</v>
       </c>
       <c r="P21" t="n">
-        <v>1709.169475054855</v>
+        <v>1603.71397476995</v>
       </c>
       <c r="Q21" t="n">
-        <v>1803.922801948543</v>
+        <v>1698.467301663637</v>
       </c>
       <c r="R21" t="n">
-        <v>1837.527399914421</v>
+        <v>1837.527399914422</v>
       </c>
       <c r="S21" t="n">
         <v>1773.61432381351</v>
@@ -5870,13 +5870,13 @@
         <v>1245.832966754397</v>
       </c>
       <c r="W21" t="n">
-        <v>1049.311589587614</v>
+        <v>1049.311589587615</v>
       </c>
       <c r="X21" t="n">
-        <v>885.8342433542774</v>
+        <v>885.8342433542775</v>
       </c>
       <c r="Y21" t="n">
-        <v>746.1413547075698</v>
+        <v>746.1413547075699</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1106.738198007629</v>
+        <v>1106.73819800763</v>
       </c>
       <c r="C22" t="n">
-        <v>935.4968414269586</v>
+        <v>935.4968414269588</v>
       </c>
       <c r="D22" t="n">
-        <v>772.9112750941426</v>
+        <v>772.9112750941428</v>
       </c>
       <c r="E22" t="n">
-        <v>607.4342757874094</v>
+        <v>607.4342757874095</v>
       </c>
       <c r="F22" t="n">
-        <v>436.3037081023831</v>
+        <v>436.3037081023832</v>
       </c>
       <c r="G22" t="n">
         <v>271.5638015100795</v>
@@ -5907,28 +5907,28 @@
         <v>135.4857189081374</v>
       </c>
       <c r="I22" t="n">
-        <v>60.08120758567084</v>
+        <v>60.08120758567085</v>
       </c>
       <c r="J22" t="n">
-        <v>172.0269503362146</v>
+        <v>172.0269503362151</v>
       </c>
       <c r="K22" t="n">
-        <v>488.0398823440601</v>
+        <v>488.0398823440606</v>
       </c>
       <c r="L22" t="n">
-        <v>957.2396183439616</v>
+        <v>957.2396183439622</v>
       </c>
       <c r="M22" t="n">
-        <v>1469.160590076265</v>
+        <v>1469.160590076266</v>
       </c>
       <c r="N22" t="n">
         <v>1964.516465067341</v>
       </c>
       <c r="O22" t="n">
-        <v>2428.811410907481</v>
+        <v>2428.811410907482</v>
       </c>
       <c r="P22" t="n">
-        <v>2812.564992233914</v>
+        <v>2812.564992233915</v>
       </c>
       <c r="Q22" t="n">
         <v>3004.060379283542</v>
@@ -5937,7 +5937,7 @@
         <v>2993.087941695769</v>
       </c>
       <c r="S22" t="n">
-        <v>2837.379437578397</v>
+        <v>2837.379437578398</v>
       </c>
       <c r="T22" t="n">
         <v>2598.129047156838</v>
@@ -5952,7 +5952,7 @@
         <v>1763.617211962908</v>
       </c>
       <c r="X22" t="n">
-        <v>1521.784521949126</v>
+        <v>1521.784521949127</v>
       </c>
       <c r="Y22" t="n">
         <v>1296.172960179282</v>
@@ -5977,49 +5977,49 @@
         <v>1201.921539932731</v>
       </c>
       <c r="F23" t="n">
-        <v>777.5285646625441</v>
+        <v>777.5285646625443</v>
       </c>
       <c r="G23" t="n">
-        <v>375.6726412165673</v>
+        <v>375.6726412165674</v>
       </c>
       <c r="H23" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I23" t="n">
         <v>128.4723250757414</v>
       </c>
       <c r="J23" t="n">
-        <v>245.0806475859275</v>
+        <v>636.8098662935537</v>
       </c>
       <c r="K23" t="n">
-        <v>428.0913046543881</v>
+        <v>1570.735786124374</v>
       </c>
       <c r="L23" t="n">
-        <v>1621.999713382612</v>
+        <v>1803.773225429</v>
       </c>
       <c r="M23" t="n">
-        <v>1886.445049701137</v>
+        <v>2068.218561747526</v>
       </c>
       <c r="N23" t="n">
-        <v>3080.35345842936</v>
+        <v>2612.778068612454</v>
       </c>
       <c r="O23" t="n">
-        <v>3747.22952300047</v>
+        <v>3747.229523000471</v>
       </c>
       <c r="P23" t="n">
-        <v>3956.94657887532</v>
+        <v>3956.946578875321</v>
       </c>
       <c r="Q23" t="n">
-        <v>4598.456189997018</v>
+        <v>4598.456189997019</v>
       </c>
       <c r="R23" t="n">
-        <v>4823.872358497873</v>
+        <v>4823.872358497874</v>
       </c>
       <c r="S23" t="n">
-        <v>4760.158431027003</v>
+        <v>4760.158431027004</v>
       </c>
       <c r="T23" t="n">
-        <v>4720.512124274806</v>
+        <v>4547.633150798816</v>
       </c>
       <c r="U23" t="n">
         <v>4463.028576005564</v>
@@ -6062,34 +6062,34 @@
         <v>140.8005535632771</v>
       </c>
       <c r="H24" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I24" t="n">
-        <v>112.0979079879194</v>
+        <v>135.5552138323312</v>
       </c>
       <c r="J24" t="n">
-        <v>178.4911258974926</v>
+        <v>494.0509242114955</v>
       </c>
       <c r="K24" t="n">
-        <v>791.1249723438432</v>
+        <v>620.2276675929165</v>
       </c>
       <c r="L24" t="n">
-        <v>968.3125879351464</v>
+        <v>797.4152831842198</v>
       </c>
       <c r="M24" t="n">
-        <v>1178.227669008284</v>
+        <v>1007.330364257357</v>
       </c>
       <c r="N24" t="n">
-        <v>1396.039982454417</v>
+        <v>1225.142677703491</v>
       </c>
       <c r="O24" t="n">
-        <v>1591.684979448393</v>
+        <v>1420.787674697466</v>
       </c>
       <c r="P24" t="n">
-        <v>1745.565714639142</v>
+        <v>1574.668409888216</v>
       </c>
       <c r="Q24" t="n">
-        <v>1840.31904153283</v>
+        <v>1734.863541247924</v>
       </c>
       <c r="R24" t="n">
         <v>1873.923639498708</v>
@@ -6126,16 +6126,16 @@
         <v>1143.134437591916</v>
       </c>
       <c r="C25" t="n">
-        <v>971.8930810112453</v>
+        <v>971.8930810112454</v>
       </c>
       <c r="D25" t="n">
-        <v>809.3075146784292</v>
+        <v>809.3075146784294</v>
       </c>
       <c r="E25" t="n">
-        <v>643.830515371696</v>
+        <v>643.8305153716962</v>
       </c>
       <c r="F25" t="n">
-        <v>472.6999476866697</v>
+        <v>472.6999476866698</v>
       </c>
       <c r="G25" t="n">
         <v>307.9600410943661</v>
@@ -6144,28 +6144,28 @@
         <v>171.881958492424</v>
       </c>
       <c r="I25" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="J25" t="n">
         <v>208.423189920502</v>
       </c>
       <c r="K25" t="n">
-        <v>524.4361219283464</v>
+        <v>524.4361219283475</v>
       </c>
       <c r="L25" t="n">
-        <v>993.635857928248</v>
+        <v>993.635857928249</v>
       </c>
       <c r="M25" t="n">
-        <v>1505.556829660551</v>
+        <v>1505.556829660552</v>
       </c>
       <c r="N25" t="n">
-        <v>2000.912704651627</v>
+        <v>2000.912704651628</v>
       </c>
       <c r="O25" t="n">
-        <v>2465.207650491768</v>
+        <v>2465.207650491769</v>
       </c>
       <c r="P25" t="n">
-        <v>2848.961231818201</v>
+        <v>2848.961231818202</v>
       </c>
       <c r="Q25" t="n">
         <v>3040.456618867828</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2477.341093144305</v>
+        <v>2301.09539458405</v>
       </c>
       <c r="C26" t="n">
-        <v>2050.931089334856</v>
+        <v>1874.685390774601</v>
       </c>
       <c r="D26" t="n">
-        <v>1628.129194697108</v>
+        <v>1451.883496136853</v>
       </c>
       <c r="E26" t="n">
-        <v>1202.642981022217</v>
+        <v>1026.397282461961</v>
       </c>
       <c r="F26" t="n">
-        <v>778.0095253888682</v>
+        <v>601.7638268286128</v>
       </c>
       <c r="G26" t="n">
-        <v>375.9131215797294</v>
+        <v>199.667423019474</v>
       </c>
       <c r="H26" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I26" t="n">
         <v>128.4723250757414</v>
@@ -6229,49 +6229,49 @@
         <v>245.0806475859275</v>
       </c>
       <c r="K26" t="n">
-        <v>428.0913046543881</v>
+        <v>1179.006567416748</v>
       </c>
       <c r="L26" t="n">
-        <v>1621.999713382612</v>
+        <v>2372.914976144972</v>
       </c>
       <c r="M26" t="n">
-        <v>2815.908122110835</v>
+        <v>3566.823384873196</v>
       </c>
       <c r="N26" t="n">
-        <v>4009.816530839059</v>
+        <v>4139.027334166216</v>
       </c>
       <c r="O26" t="n">
-        <v>4262.1062853138</v>
+        <v>4391.317088640957</v>
       </c>
       <c r="P26" t="n">
-        <v>4471.823341188651</v>
+        <v>4601.034144515808</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.484044947613</v>
+        <v>4750.69484827477</v>
       </c>
       <c r="R26" t="n">
-        <v>4823.872358497873</v>
+        <v>4823.872358497874</v>
       </c>
       <c r="S26" t="n">
-        <v>4823.872358497873</v>
+        <v>4759.917950663842</v>
       </c>
       <c r="T26" t="n">
-        <v>4611.106597906524</v>
+        <v>4547.152190072493</v>
       </c>
       <c r="U26" t="n">
-        <v>4465.673860000345</v>
+        <v>4289.42816144009</v>
       </c>
       <c r="V26" t="n">
-        <v>4108.675171303846</v>
+        <v>3932.42947274359</v>
       </c>
       <c r="W26" t="n">
-        <v>3712.774547781444</v>
+        <v>3536.528849221188</v>
       </c>
       <c r="X26" t="n">
-        <v>3301.545275126442</v>
+        <v>3125.299576566187</v>
       </c>
       <c r="Y26" t="n">
-        <v>2896.698731258584</v>
+        <v>2720.453032698329</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>140.8005535632771</v>
       </c>
       <c r="H27" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I27" t="n">
-        <v>112.0979079879194</v>
+        <v>135.5552138323312</v>
       </c>
       <c r="J27" t="n">
-        <v>178.4911258974926</v>
+        <v>494.0509242114955</v>
       </c>
       <c r="K27" t="n">
-        <v>304.6678692789136</v>
+        <v>620.2276675929165</v>
       </c>
       <c r="L27" t="n">
-        <v>481.8554848702169</v>
+        <v>797.4152831842198</v>
       </c>
       <c r="M27" t="n">
-        <v>691.7705659433539</v>
+        <v>1007.330364257357</v>
       </c>
       <c r="N27" t="n">
-        <v>909.5828793894877</v>
+        <v>1225.142677703491</v>
       </c>
       <c r="O27" t="n">
-        <v>1105.227876383463</v>
+        <v>1420.787674697466</v>
       </c>
       <c r="P27" t="n">
-        <v>1259.108611574212</v>
+        <v>1574.668409888216</v>
       </c>
       <c r="Q27" t="n">
-        <v>1840.31904153283</v>
+        <v>1734.863541247924</v>
       </c>
       <c r="R27" t="n">
         <v>1873.923639498708</v>
@@ -6363,16 +6363,16 @@
         <v>1144.81780013405</v>
       </c>
       <c r="C28" t="n">
-        <v>973.3359631902175</v>
+        <v>973.3359631902172</v>
       </c>
       <c r="D28" t="n">
-        <v>810.5099164942394</v>
+        <v>810.5099164942391</v>
       </c>
       <c r="E28" t="n">
-        <v>644.7924368243441</v>
+        <v>644.7924368243439</v>
       </c>
       <c r="F28" t="n">
-        <v>473.4213887761557</v>
+        <v>473.4213887761556</v>
       </c>
       <c r="G28" t="n">
         <v>308.4410018206901</v>
@@ -6381,19 +6381,19 @@
         <v>172.122438855586</v>
       </c>
       <c r="I28" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="J28" t="n">
-        <v>208.9041506468259</v>
+        <v>208.904150646826</v>
       </c>
       <c r="K28" t="n">
-        <v>525.3980433809953</v>
+        <v>525.3980433809954</v>
       </c>
       <c r="L28" t="n">
-        <v>995.0787401072208</v>
+        <v>995.0787401072209</v>
       </c>
       <c r="M28" t="n">
-        <v>1507.480672565848</v>
+        <v>1507.480672565847</v>
       </c>
       <c r="N28" t="n">
         <v>2003.317508283247</v>
@@ -6402,7 +6402,7 @@
         <v>2468.093414849712</v>
       </c>
       <c r="P28" t="n">
-        <v>2852.327956902469</v>
+        <v>2852.327956902468</v>
       </c>
       <c r="Q28" t="n">
         <v>3044.30430467842</v>
@@ -6411,25 +6411,25 @@
         <v>3033.091386727485</v>
       </c>
       <c r="S28" t="n">
-        <v>2877.142402246952</v>
+        <v>2877.142402246951</v>
       </c>
       <c r="T28" t="n">
-        <v>2637.651531462231</v>
+        <v>2637.65153146223</v>
       </c>
       <c r="U28" t="n">
-        <v>2358.000674043771</v>
+        <v>2358.00067404377</v>
       </c>
       <c r="V28" t="n">
-        <v>2076.779932829051</v>
+        <v>2076.77993282905</v>
       </c>
       <c r="W28" t="n">
         <v>1802.418255178815</v>
       </c>
       <c r="X28" t="n">
-        <v>1560.345084801872</v>
+        <v>1560.345084801871</v>
       </c>
       <c r="Y28" t="n">
-        <v>1334.493042668865</v>
+        <v>1334.493042668864</v>
       </c>
     </row>
     <row r="29">
@@ -6457,43 +6457,43 @@
         <v>375.9131215797294</v>
       </c>
       <c r="H29" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I29" t="n">
         <v>128.4723250757414</v>
       </c>
       <c r="J29" t="n">
-        <v>245.0806475859275</v>
+        <v>636.8098662935537</v>
       </c>
       <c r="K29" t="n">
-        <v>1179.006567416748</v>
+        <v>837.6488688784752</v>
       </c>
       <c r="L29" t="n">
-        <v>1412.044006721374</v>
+        <v>2031.557277606699</v>
       </c>
       <c r="M29" t="n">
-        <v>1676.4893430399</v>
+        <v>3225.465686334923</v>
       </c>
       <c r="N29" t="n">
-        <v>2870.397751768123</v>
+        <v>3494.93976852573</v>
       </c>
       <c r="O29" t="n">
-        <v>4004.84920615614</v>
+        <v>3747.229523000471</v>
       </c>
       <c r="P29" t="n">
-        <v>4448.795486238056</v>
+        <v>3956.946578875321</v>
       </c>
       <c r="Q29" t="n">
-        <v>4598.456189997018</v>
+        <v>4598.456189997019</v>
       </c>
       <c r="R29" t="n">
-        <v>4823.872358497873</v>
+        <v>4823.872358497874</v>
       </c>
       <c r="S29" t="n">
-        <v>4759.917950663841</v>
+        <v>4759.917950663842</v>
       </c>
       <c r="T29" t="n">
-        <v>4547.152190072492</v>
+        <v>4723.397888632748</v>
       </c>
       <c r="U29" t="n">
         <v>4465.673860000345</v>
@@ -6536,34 +6536,34 @@
         <v>140.8005535632771</v>
       </c>
       <c r="H30" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I30" t="n">
         <v>135.5552138323312</v>
       </c>
       <c r="J30" t="n">
-        <v>201.9484317419044</v>
+        <v>494.0509242114955</v>
       </c>
       <c r="K30" t="n">
-        <v>328.1251751233254</v>
+        <v>620.2276675929165</v>
       </c>
       <c r="L30" t="n">
-        <v>505.3127907146287</v>
+        <v>797.4152831842198</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2278717877657</v>
+        <v>1007.330364257357</v>
       </c>
       <c r="N30" t="n">
-        <v>933.0401852338996</v>
+        <v>1225.142677703491</v>
       </c>
       <c r="O30" t="n">
-        <v>1591.684979448393</v>
+        <v>1420.787674697466</v>
       </c>
       <c r="P30" t="n">
-        <v>1745.565714639142</v>
+        <v>1574.668409888216</v>
       </c>
       <c r="Q30" t="n">
-        <v>1840.31904153283</v>
+        <v>1734.863541247924</v>
       </c>
       <c r="R30" t="n">
         <v>1873.923639498708</v>
@@ -6600,16 +6600,16 @@
         <v>1144.81780013405</v>
       </c>
       <c r="C31" t="n">
-        <v>973.3359631902172</v>
+        <v>973.3359631902173</v>
       </c>
       <c r="D31" t="n">
-        <v>810.5099164942391</v>
+        <v>810.5099164942392</v>
       </c>
       <c r="E31" t="n">
-        <v>644.7924368243439</v>
+        <v>644.792436824344</v>
       </c>
       <c r="F31" t="n">
-        <v>473.4213887761556</v>
+        <v>473.4213887761557</v>
       </c>
       <c r="G31" t="n">
         <v>308.4410018206901</v>
@@ -6618,7 +6618,7 @@
         <v>172.122438855586</v>
       </c>
       <c r="I31" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="J31" t="n">
         <v>208.9041506468259</v>
@@ -6666,7 +6666,7 @@
         <v>1560.345084801872</v>
       </c>
       <c r="Y31" t="n">
-        <v>1334.493042668864</v>
+        <v>1334.493042668865</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>375.9131215797294</v>
       </c>
       <c r="H32" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I32" t="n">
         <v>128.4723250757414</v>
@@ -6703,37 +6703,37 @@
         <v>245.0806475859275</v>
       </c>
       <c r="K32" t="n">
-        <v>428.0913046543881</v>
+        <v>1179.006567416748</v>
       </c>
       <c r="L32" t="n">
-        <v>1621.999713382612</v>
+        <v>1412.044006721374</v>
       </c>
       <c r="M32" t="n">
-        <v>2062.957225524716</v>
+        <v>1676.4893430399</v>
       </c>
       <c r="N32" t="n">
-        <v>3256.865634252939</v>
+        <v>1945.963425230706</v>
       </c>
       <c r="O32" t="n">
-        <v>4391.317088640956</v>
+        <v>3080.414879618723</v>
       </c>
       <c r="P32" t="n">
-        <v>4601.034144515807</v>
+        <v>4035.610822843631</v>
       </c>
       <c r="Q32" t="n">
-        <v>4750.694848274769</v>
+        <v>4598.456189997019</v>
       </c>
       <c r="R32" t="n">
-        <v>4823.872358497873</v>
+        <v>4823.872358497874</v>
       </c>
       <c r="S32" t="n">
-        <v>4823.872358497873</v>
+        <v>4759.917950663842</v>
       </c>
       <c r="T32" t="n">
-        <v>4611.106597906524</v>
+        <v>4723.397888632748</v>
       </c>
       <c r="U32" t="n">
-        <v>4353.382569274121</v>
+        <v>4465.673860000345</v>
       </c>
       <c r="V32" t="n">
         <v>4108.675171303846</v>
@@ -6773,25 +6773,25 @@
         <v>140.8005535632771</v>
       </c>
       <c r="H33" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="I33" t="n">
-        <v>112.0979079879194</v>
+        <v>135.5552138323312</v>
       </c>
       <c r="J33" t="n">
-        <v>178.4911258974926</v>
+        <v>494.0509242114955</v>
       </c>
       <c r="K33" t="n">
-        <v>304.6678692789136</v>
+        <v>685.6694720589371</v>
       </c>
       <c r="L33" t="n">
-        <v>481.8554848702169</v>
+        <v>862.8570876502404</v>
       </c>
       <c r="M33" t="n">
-        <v>691.7705659433539</v>
+        <v>1072.772168723377</v>
       </c>
       <c r="N33" t="n">
-        <v>909.5828793894877</v>
+        <v>1290.584482169511</v>
       </c>
       <c r="O33" t="n">
         <v>1486.229479163487</v>
@@ -6837,16 +6837,16 @@
         <v>1144.81780013405</v>
       </c>
       <c r="C34" t="n">
-        <v>973.3359631902173</v>
+        <v>973.3359631902172</v>
       </c>
       <c r="D34" t="n">
-        <v>810.5099164942392</v>
+        <v>810.5099164942391</v>
       </c>
       <c r="E34" t="n">
-        <v>644.792436824344</v>
+        <v>644.7924368243439</v>
       </c>
       <c r="F34" t="n">
-        <v>473.4213887761557</v>
+        <v>473.4213887761556</v>
       </c>
       <c r="G34" t="n">
         <v>308.4410018206901</v>
@@ -6855,46 +6855,46 @@
         <v>172.122438855586</v>
       </c>
       <c r="I34" t="n">
-        <v>96.47744716995747</v>
+        <v>96.47744716995749</v>
       </c>
       <c r="J34" t="n">
         <v>208.9041506468259</v>
       </c>
       <c r="K34" t="n">
-        <v>525.3980433809959</v>
+        <v>525.3980433809954</v>
       </c>
       <c r="L34" t="n">
-        <v>995.0787401072214</v>
+        <v>995.0787401072209</v>
       </c>
       <c r="M34" t="n">
-        <v>1507.480672565849</v>
+        <v>1507.480672565848</v>
       </c>
       <c r="N34" t="n">
         <v>2003.317508283248</v>
       </c>
       <c r="O34" t="n">
-        <v>2468.093414849713</v>
+        <v>2468.093414849712</v>
       </c>
       <c r="P34" t="n">
         <v>2852.327956902469</v>
       </c>
       <c r="Q34" t="n">
-        <v>3044.304304678421</v>
+        <v>3044.30430467842</v>
       </c>
       <c r="R34" t="n">
-        <v>3033.091386727486</v>
+        <v>3033.091386727485</v>
       </c>
       <c r="S34" t="n">
         <v>2877.142402246952</v>
       </c>
       <c r="T34" t="n">
-        <v>2637.651531462231</v>
+        <v>2637.65153146223</v>
       </c>
       <c r="U34" t="n">
-        <v>2358.000674043771</v>
+        <v>2358.00067404377</v>
       </c>
       <c r="V34" t="n">
-        <v>2076.779932829051</v>
+        <v>2076.77993282905</v>
       </c>
       <c r="W34" t="n">
         <v>1802.418255178815</v>
@@ -6903,7 +6903,7 @@
         <v>1560.345084801871</v>
       </c>
       <c r="Y34" t="n">
-        <v>1334.493042668865</v>
+        <v>1334.493042668864</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1736.875723516898</v>
+        <v>1701.388220874255</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.465719707449</v>
+        <v>1701.388220874255</v>
       </c>
       <c r="D35" t="n">
-        <v>887.6638250697008</v>
+        <v>1278.586326236507</v>
       </c>
       <c r="E35" t="n">
-        <v>462.1776113948096</v>
+        <v>853.1001125616157</v>
       </c>
       <c r="F35" t="n">
         <v>462.1776113948096</v>
       </c>
       <c r="G35" t="n">
-        <v>60.08120758567081</v>
+        <v>60.08120758567084</v>
       </c>
       <c r="H35" t="n">
-        <v>60.08120758567081</v>
+        <v>60.08120758567084</v>
       </c>
       <c r="I35" t="n">
-        <v>92.07608549145475</v>
+        <v>92.07608549145478</v>
       </c>
       <c r="J35" t="n">
-        <v>600.413626709267</v>
+        <v>208.6844080016409</v>
       </c>
       <c r="K35" t="n">
-        <v>908.1709314974386</v>
+        <v>952.1893518743175</v>
       </c>
       <c r="L35" t="n">
-        <v>1141.208370802065</v>
+        <v>1185.226791178944</v>
       </c>
       <c r="M35" t="n">
-        <v>1405.65370712059</v>
+        <v>1449.672127497469</v>
       </c>
       <c r="N35" t="n">
-        <v>1675.127789311396</v>
+        <v>1719.146209688276</v>
       </c>
       <c r="O35" t="n">
-        <v>1927.417543786137</v>
+        <v>1971.435964163016</v>
       </c>
       <c r="P35" t="n">
-        <v>2137.134599660988</v>
+        <v>2181.153020037867</v>
       </c>
       <c r="Q35" t="n">
-        <v>2778.644210782685</v>
+        <v>2778.644210782687</v>
       </c>
       <c r="R35" t="n">
-        <v>3004.06037928354</v>
+        <v>3004.060379283542</v>
       </c>
       <c r="S35" t="n">
-        <v>3004.06037928354</v>
+        <v>2940.10597144951</v>
       </c>
       <c r="T35" t="n">
-        <v>3004.06037928354</v>
+        <v>2727.34021085816</v>
       </c>
       <c r="U35" t="n">
-        <v>3004.06037928354</v>
+        <v>2469.616182225756</v>
       </c>
       <c r="V35" t="n">
-        <v>2963.36325780858</v>
+        <v>2112.617493529257</v>
       </c>
       <c r="W35" t="n">
-        <v>2567.462634286178</v>
+        <v>2112.617493529257</v>
       </c>
       <c r="X35" t="n">
-        <v>2156.233361631177</v>
+        <v>1701.388220874255</v>
       </c>
       <c r="Y35" t="n">
-        <v>2156.233361631177</v>
+        <v>1701.388220874255</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>104.4043139789905</v>
       </c>
       <c r="H36" t="n">
-        <v>60.08120758567081</v>
+        <v>60.08120758567084</v>
       </c>
       <c r="I36" t="n">
-        <v>75.7016684036327</v>
+        <v>99.15897424804457</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0948863132059</v>
+        <v>457.6546846272088</v>
       </c>
       <c r="K36" t="n">
-        <v>268.271629694627</v>
+        <v>583.8314280086299</v>
       </c>
       <c r="L36" t="n">
-        <v>931.9163483508596</v>
+        <v>761.0190435999332</v>
       </c>
       <c r="M36" t="n">
-        <v>1141.831429423997</v>
+        <v>970.9341246730703</v>
       </c>
       <c r="N36" t="n">
-        <v>1359.643742870131</v>
+        <v>1188.746438119204</v>
       </c>
       <c r="O36" t="n">
-        <v>1555.288739864106</v>
+        <v>1384.391435113179</v>
       </c>
       <c r="P36" t="n">
-        <v>1709.169475054855</v>
+        <v>1538.272170303929</v>
       </c>
       <c r="Q36" t="n">
-        <v>1803.922801948543</v>
+        <v>1698.467301663637</v>
       </c>
       <c r="R36" t="n">
         <v>1837.527399914421</v>
@@ -7074,25 +7074,25 @@
         <v>1108.421560549763</v>
       </c>
       <c r="C37" t="n">
-        <v>936.9397236059307</v>
+        <v>936.9397236059306</v>
       </c>
       <c r="D37" t="n">
-        <v>774.1136769099526</v>
+        <v>774.1136769099525</v>
       </c>
       <c r="E37" t="n">
-        <v>608.3961972400574</v>
+        <v>608.3961972400573</v>
       </c>
       <c r="F37" t="n">
         <v>437.025149191869</v>
       </c>
       <c r="G37" t="n">
-        <v>272.0447622364035</v>
+        <v>272.0447622364034</v>
       </c>
       <c r="H37" t="n">
         <v>135.7261992712993</v>
       </c>
       <c r="I37" t="n">
-        <v>60.08120758567081</v>
+        <v>60.08120758567084</v>
       </c>
       <c r="J37" t="n">
         <v>172.0269503362153</v>
@@ -7110,34 +7110,34 @@
         <v>1964.516465067341</v>
       </c>
       <c r="O37" t="n">
-        <v>2428.81141090748</v>
+        <v>2428.811410907482</v>
       </c>
       <c r="P37" t="n">
-        <v>2812.564992233913</v>
+        <v>2812.564992233914</v>
       </c>
       <c r="Q37" t="n">
-        <v>3004.06037928354</v>
+        <v>3004.060379283542</v>
       </c>
       <c r="R37" t="n">
-        <v>2992.847461332606</v>
+        <v>2996.695147143199</v>
       </c>
       <c r="S37" t="n">
-        <v>2836.898476852072</v>
+        <v>2840.746162662665</v>
       </c>
       <c r="T37" t="n">
-        <v>2597.407606067351</v>
+        <v>2601.255291877944</v>
       </c>
       <c r="U37" t="n">
-        <v>2317.756748648891</v>
+        <v>2321.604434459484</v>
       </c>
       <c r="V37" t="n">
-        <v>2036.536007434171</v>
+        <v>2040.383693244764</v>
       </c>
       <c r="W37" t="n">
-        <v>1762.174329783935</v>
+        <v>1766.022015594528</v>
       </c>
       <c r="X37" t="n">
-        <v>1520.101159406991</v>
+        <v>1523.948845217585</v>
       </c>
       <c r="Y37" t="n">
         <v>1298.096803084578</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1593.509503288921</v>
+        <v>1716.716870006856</v>
       </c>
       <c r="C38" t="n">
-        <v>1167.099499479473</v>
+        <v>1312.297280703049</v>
       </c>
       <c r="D38" t="n">
-        <v>1167.099499479473</v>
+        <v>1312.297280703049</v>
       </c>
       <c r="E38" t="n">
-        <v>741.6132858045814</v>
+        <v>886.8110670281582</v>
       </c>
       <c r="F38" t="n">
-        <v>741.6132858045814</v>
+        <v>462.1776113948096</v>
       </c>
       <c r="G38" t="n">
-        <v>339.5168819954427</v>
+        <v>60.08120758567085</v>
       </c>
       <c r="H38" t="n">
-        <v>60.08120758567082</v>
+        <v>60.08120758567085</v>
       </c>
       <c r="I38" t="n">
-        <v>92.07608549145476</v>
+        <v>92.07608549145479</v>
       </c>
       <c r="J38" t="n">
-        <v>600.413626709267</v>
+        <v>600.4136267092671</v>
       </c>
       <c r="K38" t="n">
-        <v>783.4242837777275</v>
+        <v>783.4242837777276</v>
       </c>
       <c r="L38" t="n">
         <v>1016.461723082354</v>
@@ -7186,40 +7186,40 @@
         <v>1280.907059400879</v>
       </c>
       <c r="N38" t="n">
-        <v>2024.412003273555</v>
+        <v>1675.127789311398</v>
       </c>
       <c r="O38" t="n">
-        <v>2276.701757748296</v>
+        <v>1927.417543786139</v>
       </c>
       <c r="P38" t="n">
-        <v>2486.418813623147</v>
+        <v>2137.13459966099</v>
       </c>
       <c r="Q38" t="n">
-        <v>2778.644210782686</v>
+        <v>2778.644210782687</v>
       </c>
       <c r="R38" t="n">
-        <v>3004.060379283541</v>
+        <v>3004.060379283542</v>
       </c>
       <c r="S38" t="n">
-        <v>2940.105971449509</v>
+        <v>2940.10597144951</v>
       </c>
       <c r="T38" t="n">
-        <v>2727.340210858159</v>
+        <v>2727.34021085816</v>
       </c>
       <c r="U38" t="n">
-        <v>2727.340210858159</v>
+        <v>2469.616182225757</v>
       </c>
       <c r="V38" t="n">
-        <v>2727.340210858159</v>
+        <v>2112.617493529257</v>
       </c>
       <c r="W38" t="n">
-        <v>2331.439587335758</v>
+        <v>1716.716870006856</v>
       </c>
       <c r="X38" t="n">
-        <v>2331.439587335758</v>
+        <v>1716.716870006856</v>
       </c>
       <c r="Y38" t="n">
-        <v>2012.8671414032</v>
+        <v>1716.716870006856</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>617.2143452875071</v>
+        <v>617.2143452875072</v>
       </c>
       <c r="C39" t="n">
-        <v>499.7084418050118</v>
+        <v>499.7084418050119</v>
       </c>
       <c r="D39" t="n">
         <v>395.8684833202969</v>
       </c>
       <c r="E39" t="n">
-        <v>291.1665495932341</v>
+        <v>291.1665495932342</v>
       </c>
       <c r="F39" t="n">
         <v>197.5207192761383</v>
@@ -7247,19 +7247,19 @@
         <v>104.4043139789905</v>
       </c>
       <c r="H39" t="n">
-        <v>60.08120758567082</v>
+        <v>60.08120758567085</v>
       </c>
       <c r="I39" t="n">
-        <v>99.15897424804456</v>
+        <v>99.15897424804459</v>
       </c>
       <c r="J39" t="n">
-        <v>457.6546846272088</v>
+        <v>457.6546846272089</v>
       </c>
       <c r="K39" t="n">
-        <v>583.8314280086299</v>
+        <v>649.2732324746507</v>
       </c>
       <c r="L39" t="n">
-        <v>826.4608480659535</v>
+        <v>826.460848065954</v>
       </c>
       <c r="M39" t="n">
         <v>1036.375929139091</v>
@@ -7277,7 +7277,7 @@
         <v>1698.467301663637</v>
       </c>
       <c r="R39" t="n">
-        <v>1837.527399914421</v>
+        <v>1837.527399914422</v>
       </c>
       <c r="S39" t="n">
         <v>1773.61432381351</v>
@@ -7292,13 +7292,13 @@
         <v>1245.832966754397</v>
       </c>
       <c r="W39" t="n">
-        <v>1049.311589587614</v>
+        <v>1049.311589587615</v>
       </c>
       <c r="X39" t="n">
-        <v>885.8342433542774</v>
+        <v>885.8342433542775</v>
       </c>
       <c r="Y39" t="n">
-        <v>746.1413547075698</v>
+        <v>746.1413547075699</v>
       </c>
     </row>
     <row r="40">
@@ -7311,13 +7311,13 @@
         <v>1108.421560549763</v>
       </c>
       <c r="C40" t="n">
-        <v>936.9397236059307</v>
+        <v>936.9397236059306</v>
       </c>
       <c r="D40" t="n">
-        <v>774.1136769099526</v>
+        <v>774.1136769099525</v>
       </c>
       <c r="E40" t="n">
-        <v>608.3961972400574</v>
+        <v>608.3961972400573</v>
       </c>
       <c r="F40" t="n">
         <v>437.025149191869</v>
@@ -7326,34 +7326,34 @@
         <v>272.0447622364035</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7261992712993</v>
+        <v>135.7261992712994</v>
       </c>
       <c r="I40" t="n">
-        <v>60.08120758567082</v>
+        <v>60.08120758567085</v>
       </c>
       <c r="J40" t="n">
-        <v>172.0269503362141</v>
+        <v>172.0269503362151</v>
       </c>
       <c r="K40" t="n">
-        <v>488.0398823440596</v>
+        <v>488.0398823440606</v>
       </c>
       <c r="L40" t="n">
-        <v>957.2396183439612</v>
+        <v>957.2396183439622</v>
       </c>
       <c r="M40" t="n">
-        <v>1469.160590076264</v>
+        <v>1469.160590076266</v>
       </c>
       <c r="N40" t="n">
-        <v>1964.51646506734</v>
+        <v>1964.516465067341</v>
       </c>
       <c r="O40" t="n">
-        <v>2428.811410907481</v>
+        <v>2428.811410907482</v>
       </c>
       <c r="P40" t="n">
-        <v>2812.564992233914</v>
+        <v>2812.564992233915</v>
       </c>
       <c r="Q40" t="n">
-        <v>3004.060379283541</v>
+        <v>3004.060379283542</v>
       </c>
       <c r="R40" t="n">
         <v>2996.695147143199</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1290.084491233419</v>
+        <v>923.7984820792674</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.084491233419</v>
+        <v>885.6658002514289</v>
       </c>
       <c r="D41" t="n">
-        <v>1290.084491233419</v>
+        <v>462.3731794364291</v>
       </c>
       <c r="E41" t="n">
-        <v>864.1075513812765</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="F41" t="n">
-        <v>438.9833695706767</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="G41" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="H41" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="I41" t="n">
-        <v>68.3911174900706</v>
+        <v>68.39111749007061</v>
       </c>
       <c r="J41" t="n">
         <v>184.9994400002567</v>
       </c>
       <c r="K41" t="n">
-        <v>368.0100970687175</v>
+        <v>368.0100970687173</v>
       </c>
       <c r="L41" t="n">
-        <v>601.0475363733435</v>
+        <v>601.0475363733433</v>
       </c>
       <c r="M41" t="n">
-        <v>865.4928726918687</v>
+        <v>865.4928726918686</v>
       </c>
       <c r="N41" t="n">
         <v>1134.966954882675</v>
@@ -7435,28 +7435,28 @@
         <v>1746.634468991229</v>
       </c>
       <c r="R41" t="n">
-        <v>1819.811979214333</v>
+        <v>1819.811979214334</v>
       </c>
       <c r="S41" t="n">
-        <v>1819.811979214333</v>
+        <v>1755.36684520305</v>
       </c>
       <c r="T41" t="n">
-        <v>1695.421761278529</v>
+        <v>1755.36684520305</v>
       </c>
       <c r="U41" t="n">
-        <v>1695.421761278529</v>
+        <v>1755.36684520305</v>
       </c>
       <c r="V41" t="n">
-        <v>1695.421761278529</v>
+        <v>1755.36684520305</v>
       </c>
       <c r="W41" t="n">
-        <v>1695.421761278529</v>
+        <v>1755.36684520305</v>
       </c>
       <c r="X41" t="n">
-        <v>1695.421761278529</v>
+        <v>1343.646846370797</v>
       </c>
       <c r="Y41" t="n">
-        <v>1290.084491233419</v>
+        <v>1343.646846370797</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>173.8357512747541</v>
       </c>
       <c r="G42" t="n">
-        <v>80.71934597760631</v>
+        <v>80.71934597760632</v>
       </c>
       <c r="H42" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="I42" t="n">
-        <v>75.47400624666039</v>
+        <v>75.47400624666041</v>
       </c>
       <c r="J42" t="n">
-        <v>143.7613831299853</v>
+        <v>433.9697166258247</v>
       </c>
       <c r="K42" t="n">
-        <v>269.9381265114064</v>
+        <v>625.5882644732665</v>
       </c>
       <c r="L42" t="n">
-        <v>447.1257421027097</v>
+        <v>802.7758800645697</v>
       </c>
       <c r="M42" t="n">
-        <v>657.0408231758468</v>
+        <v>1012.690961137707</v>
       </c>
       <c r="N42" t="n">
-        <v>874.8531366219805</v>
+        <v>1230.503274583841</v>
       </c>
       <c r="O42" t="n">
-        <v>1070.498133615956</v>
+        <v>1426.148271577816</v>
       </c>
       <c r="P42" t="n">
-        <v>1224.378868806705</v>
+        <v>1580.029006768566</v>
       </c>
       <c r="Q42" t="n">
         <v>1674.782333662253</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1012.035957926258</v>
+        <v>540.0481216852339</v>
       </c>
       <c r="C43" t="n">
-        <v>840.0633948051742</v>
+        <v>368.0755585641499</v>
       </c>
       <c r="D43" t="n">
-        <v>676.7466219319449</v>
+        <v>368.0755585641499</v>
       </c>
       <c r="E43" t="n">
-        <v>510.5384160847984</v>
+        <v>201.8673527170035</v>
       </c>
       <c r="F43" t="n">
-        <v>338.6766418593588</v>
+        <v>201.8673527170035</v>
       </c>
       <c r="G43" t="n">
-        <v>173.205528726642</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="H43" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="I43" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="J43" t="n">
-        <v>70.42026568661028</v>
+        <v>70.42026568661029</v>
       </c>
       <c r="K43" t="n">
-        <v>386.4331976944558</v>
+        <v>139.1505885804337</v>
       </c>
       <c r="L43" t="n">
-        <v>836.8366625500032</v>
+        <v>357.4823182228376</v>
       </c>
       <c r="M43" t="n">
-        <v>1009.592798406838</v>
+        <v>807.8857830783852</v>
       </c>
       <c r="N43" t="n">
-        <v>1106.915750556033</v>
+        <v>1258.289247933933</v>
       </c>
       <c r="O43" t="n">
-        <v>1557.319215411581</v>
+        <v>1708.69271278948</v>
       </c>
       <c r="P43" t="n">
-        <v>1628.316592164706</v>
+        <v>1779.690089542606</v>
       </c>
       <c r="Q43" t="n">
-        <v>1819.811979214333</v>
+        <v>1819.811979214334</v>
       </c>
       <c r="R43" t="n">
-        <v>1808.108335086147</v>
+        <v>1808.108335086148</v>
       </c>
       <c r="S43" t="n">
         <v>1651.668624428363</v>
       </c>
       <c r="T43" t="n">
-        <v>1651.668624428363</v>
+        <v>1411.68702746639</v>
       </c>
       <c r="U43" t="n">
-        <v>1371.527040832652</v>
+        <v>1131.545443870679</v>
       </c>
       <c r="V43" t="n">
-        <v>1089.815573440681</v>
+        <v>972.7779869514944</v>
       </c>
       <c r="W43" t="n">
-        <v>1089.815573440681</v>
+        <v>972.7779869514944</v>
       </c>
       <c r="X43" t="n">
-        <v>1089.815573440681</v>
+        <v>730.2140903972995</v>
       </c>
       <c r="Y43" t="n">
-        <v>1089.815573440681</v>
+        <v>730.2140903972995</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1737.690712048729</v>
+        <v>1144.0339519683</v>
       </c>
       <c r="C44" t="n">
-        <v>1310.789982062029</v>
+        <v>1144.0339519683</v>
       </c>
       <c r="D44" t="n">
-        <v>887.4973612470289</v>
+        <v>1144.0339519683</v>
       </c>
       <c r="E44" t="n">
-        <v>461.5204213948865</v>
+        <v>1144.0339519683</v>
       </c>
       <c r="F44" t="n">
-        <v>36.39623958428667</v>
+        <v>718.9097701576998</v>
       </c>
       <c r="G44" t="n">
-        <v>36.39623958428667</v>
+        <v>316.3226401713098</v>
       </c>
       <c r="H44" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="I44" t="n">
-        <v>68.3911174900702</v>
+        <v>68.39111749007061</v>
       </c>
       <c r="J44" t="n">
-        <v>184.9994400002564</v>
+        <v>184.9994400002567</v>
       </c>
       <c r="K44" t="n">
-        <v>368.010097068717</v>
+        <v>368.010097068718</v>
       </c>
       <c r="L44" t="n">
-        <v>601.0475363733431</v>
+        <v>601.047536373344</v>
       </c>
       <c r="M44" t="n">
-        <v>865.4928726918682</v>
+        <v>865.4928726918691</v>
       </c>
       <c r="N44" t="n">
-        <v>1134.966954882675</v>
+        <v>1134.966954882676</v>
       </c>
       <c r="O44" t="n">
-        <v>1387.256709357416</v>
+        <v>1387.256709357417</v>
       </c>
       <c r="P44" t="n">
         <v>1596.973765232267</v>
       </c>
       <c r="Q44" t="n">
-        <v>1746.634468991229</v>
+        <v>1746.63446899123</v>
       </c>
       <c r="R44" t="n">
-        <v>1819.811979214333</v>
+        <v>1819.811979214334</v>
       </c>
       <c r="S44" t="n">
-        <v>1819.811979214333</v>
+        <v>1755.36684520305</v>
       </c>
       <c r="T44" t="n">
-        <v>1819.811979214333</v>
+        <v>1755.36684520305</v>
       </c>
       <c r="U44" t="n">
-        <v>1737.690712048729</v>
+        <v>1563.88231625983</v>
       </c>
       <c r="V44" t="n">
-        <v>1737.690712048729</v>
+        <v>1563.88231625983</v>
       </c>
       <c r="W44" t="n">
-        <v>1737.690712048729</v>
+        <v>1563.88231625983</v>
       </c>
       <c r="X44" t="n">
-        <v>1737.690712048729</v>
+        <v>1563.88231625983</v>
       </c>
       <c r="Y44" t="n">
-        <v>1737.690712048729</v>
+        <v>1563.88231625983</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>173.8357512747541</v>
       </c>
       <c r="G45" t="n">
-        <v>80.71934597760631</v>
+        <v>80.71934597760632</v>
       </c>
       <c r="H45" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="I45" t="n">
-        <v>52.01670040224856</v>
+        <v>75.47400624666041</v>
       </c>
       <c r="J45" t="n">
-        <v>118.4099183118218</v>
+        <v>141.8672241562336</v>
       </c>
       <c r="K45" t="n">
-        <v>244.5866616932428</v>
+        <v>268.0439675376547</v>
       </c>
       <c r="L45" t="n">
-        <v>421.7742772845461</v>
+        <v>445.2315831289579</v>
       </c>
       <c r="M45" t="n">
-        <v>872.1777421400936</v>
+        <v>762.4963234607528</v>
       </c>
       <c r="N45" t="n">
-        <v>1322.581206995641</v>
+        <v>980.3086369068866</v>
       </c>
       <c r="O45" t="n">
-        <v>1531.603771862722</v>
+        <v>1175.953633900862</v>
       </c>
       <c r="P45" t="n">
-        <v>1685.484507053471</v>
+        <v>1329.834369091611</v>
       </c>
       <c r="Q45" t="n">
         <v>1780.237833947159</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>274.2182625727384</v>
+        <v>596.6240136786532</v>
       </c>
       <c r="C46" t="n">
-        <v>102.2456994516544</v>
+        <v>424.6514505575692</v>
       </c>
       <c r="D46" t="n">
-        <v>102.2456994516544</v>
+        <v>374.4662196568727</v>
       </c>
       <c r="E46" t="n">
-        <v>102.2456994516544</v>
+        <v>208.2580138097263</v>
       </c>
       <c r="F46" t="n">
-        <v>102.2456994516544</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2456994516544</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="H46" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="I46" t="n">
-        <v>36.39623958428667</v>
+        <v>36.39623958428668</v>
       </c>
       <c r="J46" t="n">
-        <v>70.42026568661028</v>
+        <v>70.42026568661029</v>
       </c>
       <c r="K46" t="n">
-        <v>386.4331976944558</v>
+        <v>139.1505885804337</v>
       </c>
       <c r="L46" t="n">
-        <v>836.8366625500032</v>
+        <v>357.4823182228376</v>
       </c>
       <c r="M46" t="n">
-        <v>1287.240127405551</v>
+        <v>807.8857830783852</v>
       </c>
       <c r="N46" t="n">
-        <v>1384.563079554746</v>
+        <v>1258.289247933933</v>
       </c>
       <c r="O46" t="n">
-        <v>1471.155701091684</v>
+        <v>1708.69271278948</v>
       </c>
       <c r="P46" t="n">
-        <v>1628.316592164706</v>
+        <v>1779.690089542606</v>
       </c>
       <c r="Q46" t="n">
-        <v>1819.811979214333</v>
+        <v>1819.811979214334</v>
       </c>
       <c r="R46" t="n">
-        <v>1819.811979214333</v>
+        <v>1808.108335086148</v>
       </c>
       <c r="S46" t="n">
-        <v>1819.811979214333</v>
+        <v>1808.108335086148</v>
       </c>
       <c r="T46" t="n">
-        <v>1579.830382252361</v>
+        <v>1568.126738124175</v>
       </c>
       <c r="U46" t="n">
-        <v>1299.688798656649</v>
+        <v>1287.985154528464</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.977331264678</v>
+        <v>1287.985154528464</v>
       </c>
       <c r="W46" t="n">
-        <v>743.1249274371912</v>
+        <v>1013.132750700977</v>
       </c>
       <c r="X46" t="n">
-        <v>500.5610308829963</v>
+        <v>1013.132750700977</v>
       </c>
       <c r="Y46" t="n">
-        <v>274.2182625727384</v>
+        <v>786.7899823907189</v>
       </c>
     </row>
   </sheetData>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>273.3136968068234</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>355.573710692996</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>330.5332349112324</v>
       </c>
       <c r="O13" t="n">
-        <v>367.4857003218283</v>
+        <v>367.4857003218284</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>215.395205859278</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>275.9756053174183</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>66.10283279396067</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>161.8894409151176</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>361.2046691381927</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>355.5737106929959</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>356.6469825316688</v>
       </c>
       <c r="O16" t="n">
-        <v>367.4857003218283</v>
+        <v>262.6631480062193</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>566.1558452567838</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>56.66794775578867</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>126.0067148683968</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>66.10283279396054</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>66.10283279396045</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9330,7 +9330,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281017</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>126.0067148683967</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>126.0067148683958</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>491.3708111766963</v>
+        <v>66.1028327939604</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517182</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>970.5767367915128</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>933.772047007492</v>
+        <v>277.8640653273956</v>
       </c>
       <c r="O23" t="n">
-        <v>418.7740506023925</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>491.3708111766965</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>66.10283279396045</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>970.5767367915128</v>
+        <v>970.576736791513</v>
       </c>
       <c r="M26" t="n">
-        <v>938.8515882926247</v>
+        <v>938.8515882926249</v>
       </c>
       <c r="N26" t="n">
-        <v>933.772047007492</v>
+        <v>305.7877445476902</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>130.5159629567231</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.3708111766969</v>
+        <v>66.10283279396045</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>18.0084298146071</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>970.5767367915131</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>938.8515882926249</v>
       </c>
       <c r="N29" t="n">
-        <v>933.772047007492</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>236.595175966732</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10190,7 +10190,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>467.6765628490081</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>66.10283279396045</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>970.5767367915128</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>178.2951270945242</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>933.7720470074919</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>417.3582458529554</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>66.10283279396015</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>384.8501038182059</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>126.006714868395</v>
+        <v>566.1558452567839</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>452.3540272584413</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>491.3708111766963</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>66.10283279396045</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>478.819052203909</v>
+        <v>126.0067148683968</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.0047408086637</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10904,10 +10904,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>66.1028327939604</v>
       </c>
       <c r="L39" t="n">
-        <v>66.10283279395995</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517138</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11138,10 +11138,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>1.913291892678501</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>66.10283279396035</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>359.2425635978385</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>361.2046691381928</v>
+        <v>126.7887749835022</v>
       </c>
       <c r="M43" t="n">
-        <v>75.12186321954884</v>
+        <v>355.5737106929961</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>356.646982531669</v>
       </c>
       <c r="O43" t="n">
-        <v>367.4857003218284</v>
+        <v>367.4857003218285</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>242.9175593761722</v>
+        <v>108.4339992511695</v>
       </c>
       <c r="N45" t="n">
-        <v>234.9405569792058</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>13.51269482131843</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>359.2425635978386</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>361.2046691381928</v>
+        <v>126.7887749835022</v>
       </c>
       <c r="M46" t="n">
-        <v>355.573710692996</v>
+        <v>355.5737106929961</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>356.646982531669</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>367.4857003218285</v>
       </c>
       <c r="P46" t="n">
-        <v>87.03385284838109</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>414.9259861736057</v>
       </c>
       <c r="C11" t="n">
         <v>421.9078282118238</v>
@@ -23272,10 +23272,10 @@
         <v>420.1490455174846</v>
       </c>
       <c r="G11" t="n">
-        <v>397.837364211517</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.4032421061438</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.07678819616167</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.198602213066266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.9087127865491</v>
+        <v>254.9087127865492</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>406.8789043689211</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>327.5900105532828</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>160.9597106694879</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>163.8222293136659</v>
       </c>
       <c r="F13" t="n">
-        <v>169.4192620081761</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0925075263805</v>
+        <v>143.7320438974421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.7173017759227</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>74.65046620924187</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>10.86271321189511</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>236.857886517344</v>
       </c>
       <c r="U13" t="n">
-        <v>276.6162732847449</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>271.379985314203</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>31.59188309629783</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>223.3554461521463</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330.7303537796207</v>
+        <v>414.9259861736057</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.3358001318406</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>420.9932759786119</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.837364211517</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>276.4032421061438</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.07678819616167</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.4000274259056</v>
       </c>
       <c r="U14" t="n">
-        <v>254.9087127865491</v>
+        <v>254.9087127865492</v>
       </c>
       <c r="V14" t="n">
         <v>353.1906262500039</v>
       </c>
       <c r="W14" t="n">
-        <v>391.7035417276475</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>406.8789043689211</v>
+        <v>335.9718899998102</v>
       </c>
       <c r="Y14" t="n">
         <v>400.5600028696495</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>115.9789296354825</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.5289430148641</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>163.8222293136659</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0925075263805</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86271321189509</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.1514190761976</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>236.857886517344</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.1704582430423</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>66.40845005864284</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>239.4143631136438</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>223.3554461521463</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>418.3358001318406</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>420.9932759786119</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.1490455174846</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.837364211517</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>276.4032421061438</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.07678819616167</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.4000274259056</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.1906262500039</v>
       </c>
       <c r="W17" t="n">
-        <v>5.939464513451583</v>
+        <v>391.7035417276475</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>406.8789043689211</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>298.1554240963518</v>
       </c>
     </row>
     <row r="18">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>414.9259861736056</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>421.9078282118238</v>
@@ -23977,7 +23977,7 @@
         <v>418.3358001318406</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>277.9887711688501</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>117.9714977817939</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>210.4000274259056</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.9087127865492</v>
       </c>
       <c r="V20" t="n">
         <v>353.1906262500039</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>171.1501837412303</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>171.1501837412295</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>174.4832415746528</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.31486375569204</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>111.1683778189616</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>174.4832415746526</v>
       </c>
       <c r="U29" t="n">
-        <v>174.4832415746536</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.31486375569204</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>174.4832415746525</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>111.1683778189616</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.164061733136</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.1459037713541</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.387121077015</v>
+        <v>33.37384492187704</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.31486375569204</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.638102985436</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.1467883460795</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>313.1385515493238</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>391.9416172871778</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.809208952486017</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.809208952487523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.164061733136</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>21.77051036058612</v>
       </c>
       <c r="D38" t="n">
         <v>418.573875691371</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.387121077015</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>276.6413176656741</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.1467883460795</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.4287018095343</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>407.1169799284515</v>
       </c>
       <c r="Y38" t="n">
-        <v>85.41135695594818</v>
+        <v>400.7980784291798</v>
       </c>
     </row>
     <row r="39">
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.809208952486489</v>
+        <v>3.809208952485567</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>384.8803676772728</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.5612586865261</v>
       </c>
       <c r="H41" t="n">
         <v>277.1271365811529</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.80068267117076</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>87.97760614446807</v>
+        <v>211.1239219009147</v>
       </c>
       <c r="U41" t="n">
         <v>255.6326072615582</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.2624896656669</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.4411962509318</v>
       </c>
       <c r="I43" t="n">
         <v>75.37436068425095</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.5817809923531</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>121.7145703680584</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5612586865261</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>277.1271365811529</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.80068267117076</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.1239219009147</v>
       </c>
       <c r="U44" t="n">
-        <v>174.3325527676094</v>
+        <v>66.0629236077699</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>112.0002265528074</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.8164020013896</v>
       </c>
       <c r="H46" t="n">
-        <v>70.25023098223778</v>
+        <v>135.4411962509318</v>
       </c>
       <c r="I46" t="n">
         <v>75.37436068425095</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.58660768690419</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>154.8753135512067</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>582419.5268786566</v>
+        <v>582419.5268786567</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>408697.1074125097</v>
+        <v>408697.1074125098</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>408697.1074125098</v>
+        <v>408697.1074125099</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>559413.281127317</v>
       </c>
       <c r="D2" t="n">
-        <v>559413.2811273169</v>
+        <v>559413.281127317</v>
       </c>
       <c r="E2" t="n">
-        <v>301515.6218031271</v>
+        <v>301515.6218031269</v>
       </c>
       <c r="F2" t="n">
-        <v>301515.6218031271</v>
+        <v>301515.621803127</v>
       </c>
       <c r="G2" t="n">
-        <v>417571.8489535663</v>
+        <v>417571.8489535659</v>
       </c>
       <c r="H2" t="n">
-        <v>417571.848953566</v>
+        <v>417571.8489535662</v>
       </c>
       <c r="I2" t="n">
-        <v>554598.635550727</v>
+        <v>554598.6355507273</v>
       </c>
       <c r="J2" t="n">
-        <v>554339.9569322751</v>
+        <v>554339.9569322753</v>
       </c>
       <c r="K2" t="n">
-        <v>554339.9569322753</v>
+        <v>554339.9569322754</v>
       </c>
       <c r="L2" t="n">
-        <v>554339.9569322752</v>
+        <v>554339.9569322757</v>
       </c>
       <c r="M2" t="n">
-        <v>417224.0348456258</v>
+        <v>417224.034845626</v>
       </c>
       <c r="N2" t="n">
-        <v>417224.0348456259</v>
+        <v>417224.0348456261</v>
       </c>
       <c r="O2" t="n">
-        <v>300458.0554088071</v>
+        <v>300458.0554088074</v>
       </c>
       <c r="P2" t="n">
-        <v>300458.0554088074</v>
+        <v>300458.0554088073</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81146.1806832423</v>
+        <v>81146.18068324226</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>120981.5553311636</v>
       </c>
       <c r="J3" t="n">
-        <v>388.6551323829691</v>
+        <v>388.6551323829864</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>322739.0782821833</v>
       </c>
       <c r="E4" t="n">
-        <v>23418.73419652102</v>
+        <v>23418.73419652101</v>
       </c>
       <c r="F4" t="n">
         <v>23418.73419652101</v>
       </c>
       <c r="G4" t="n">
-        <v>78252.89456050622</v>
+        <v>78252.89456050615</v>
       </c>
       <c r="H4" t="n">
-        <v>78252.89456050616</v>
+        <v>78252.8945605062</v>
       </c>
       <c r="I4" t="n">
         <v>142995.2093411729</v>
@@ -26450,16 +26450,16 @@
         <v>142844.9777106054</v>
       </c>
       <c r="M4" t="n">
-        <v>78049.28344129541</v>
+        <v>78049.28344129548</v>
       </c>
       <c r="N4" t="n">
-        <v>78049.28344129543</v>
+        <v>78049.28344129551</v>
       </c>
       <c r="O4" t="n">
         <v>22799.6325779517</v>
       </c>
       <c r="P4" t="n">
-        <v>22799.63257795169</v>
+        <v>22799.63257795171</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>37127.28780626696</v>
+        <v>37127.28780626697</v>
       </c>
       <c r="F5" t="n">
-        <v>37127.28780626696</v>
+        <v>37127.28780626697</v>
       </c>
       <c r="G5" t="n">
-        <v>55127.86348731894</v>
+        <v>55127.86348731893</v>
       </c>
       <c r="H5" t="n">
         <v>55127.86348731894</v>
       </c>
       <c r="I5" t="n">
-        <v>82789.00557137678</v>
+        <v>82789.00557137679</v>
       </c>
       <c r="J5" t="n">
-        <v>82768.99079716262</v>
+        <v>82768.99079716264</v>
       </c>
       <c r="K5" t="n">
-        <v>82768.99079716262</v>
+        <v>82768.99079716264</v>
       </c>
       <c r="L5" t="n">
-        <v>82768.99079716262</v>
+        <v>82768.99079716264</v>
       </c>
       <c r="M5" t="n">
-        <v>55107.84871310476</v>
+        <v>55107.84871310478</v>
       </c>
       <c r="N5" t="n">
-        <v>55107.84871310477</v>
+        <v>55107.84871310479</v>
       </c>
       <c r="O5" t="n">
-        <v>37066.43072164743</v>
+        <v>37066.43072164744</v>
       </c>
       <c r="P5" t="n">
-        <v>37066.43072164743</v>
+        <v>37066.43072164744</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203046.6028451337</v>
+        <v>203024.8892036373</v>
       </c>
       <c r="C6" t="n">
-        <v>203046.6028451337</v>
+        <v>203024.8892036373</v>
       </c>
       <c r="D6" t="n">
-        <v>203046.6028451336</v>
+        <v>203024.8892036373</v>
       </c>
       <c r="E6" t="n">
-        <v>-242064.8521311862</v>
+        <v>-242747.8418222319</v>
       </c>
       <c r="F6" t="n">
-        <v>240969.5998003391</v>
+        <v>240286.6101092935</v>
       </c>
       <c r="G6" t="n">
-        <v>203044.9102224989</v>
+        <v>202659.5006010696</v>
       </c>
       <c r="H6" t="n">
-        <v>284191.0909057409</v>
+        <v>283805.6812843119</v>
       </c>
       <c r="I6" t="n">
-        <v>207832.8653070138</v>
+        <v>207798.8064204494</v>
       </c>
       <c r="J6" t="n">
-        <v>328337.3332921241</v>
+        <v>328302.6111270509</v>
       </c>
       <c r="K6" t="n">
-        <v>328725.9884245073</v>
+        <v>328691.266259434</v>
       </c>
       <c r="L6" t="n">
-        <v>328725.9884245072</v>
+        <v>328691.2662594342</v>
       </c>
       <c r="M6" t="n">
-        <v>284066.9026912256</v>
+        <v>283680.6012387507</v>
       </c>
       <c r="N6" t="n">
-        <v>284066.9026912258</v>
+        <v>283680.6012387508</v>
       </c>
       <c r="O6" t="n">
-        <v>240591.992109208</v>
+        <v>239906.2907094593</v>
       </c>
       <c r="P6" t="n">
-        <v>240591.9921092083</v>
+        <v>239906.2907094592</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>454.9529948035832</v>
+        <v>454.9529948035834</v>
       </c>
       <c r="F4" t="n">
         <v>454.9529948035832</v>
       </c>
       <c r="G4" t="n">
+        <v>751.0150948208853</v>
+      </c>
+      <c r="H4" t="n">
         <v>751.0150948208856</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>1205.968089624469</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1205.968089624469</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1205.968089624469</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1205.968089624469</v>
+      </c>
+      <c r="M4" t="n">
         <v>751.0150948208855</v>
       </c>
-      <c r="I4" t="n">
-        <v>1205.968089624468</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1205.968089624468</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1205.968089624468</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1205.968089624468</v>
-      </c>
-      <c r="M4" t="n">
-        <v>751.0150948208851</v>
-      </c>
       <c r="N4" t="n">
-        <v>751.0150948208853</v>
+        <v>751.0150948208856</v>
       </c>
       <c r="O4" t="n">
-        <v>454.9529948035834</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="P4" t="n">
-        <v>454.9529948035834</v>
+        <v>454.9529948035835</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>454.9529948035832</v>
+        <v>454.9529948035834</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>296.0621000173023</v>
+        <v>296.0621000173021</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>454.9529948035829</v>
+        <v>454.952994803583</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>454.9529948035832</v>
+        <v>454.9529948035834</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>296.0621000173023</v>
+        <v>296.0621000173021</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28295,28 +28295,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28532,28 +28532,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29243,28 +29243,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="U25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.7238944750090965</v>
+        <v>0.7238944750090752</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="W29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="U31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.4858189154787352</v>
+        <v>0.4858189154787304</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.4858189154787738</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4858189154792854</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4858189154787114</v>
+        <v>0.485818915478733</v>
       </c>
     </row>
     <row r="41">
@@ -35570,25 +35570,25 @@
         <v>34.36770313366021</v>
       </c>
       <c r="K13" t="n">
-        <v>319.2049818261066</v>
+        <v>69.42456857961966</v>
       </c>
       <c r="L13" t="n">
-        <v>367.0620224722139</v>
+        <v>93.74832566539052</v>
       </c>
       <c r="M13" t="n">
-        <v>99.37928411058734</v>
+        <v>454.9529948035834</v>
       </c>
       <c r="N13" t="n">
-        <v>98.30601227191448</v>
+        <v>428.8392471831469</v>
       </c>
       <c r="O13" t="n">
-        <v>454.9529948035832</v>
+        <v>454.9529948035834</v>
       </c>
       <c r="P13" t="n">
-        <v>387.6298801277101</v>
+        <v>71.7145219728539</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.52716128457398</v>
+        <v>193.4296838885124</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.77824325046656</v>
+        <v>39.47249157815529</v>
       </c>
       <c r="J15" t="n">
-        <v>67.06385647431637</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K15" t="n">
-        <v>342.8464618001073</v>
+        <v>127.4512559408294</v>
       </c>
       <c r="L15" t="n">
-        <v>454.9529948035832</v>
+        <v>178.9773894861649</v>
       </c>
       <c r="M15" t="n">
         <v>212.0354354274112</v>
@@ -35746,10 +35746,10 @@
         <v>155.4350860512621</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.71043120574488</v>
+        <v>161.8132639997056</v>
       </c>
       <c r="R15" t="n">
-        <v>33.94403834937238</v>
+        <v>140.4647457078631</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.36770313366021</v>
+        <v>113.0765078288328</v>
       </c>
       <c r="K16" t="n">
-        <v>231.3140094947373</v>
+        <v>69.42456857961966</v>
       </c>
       <c r="L16" t="n">
+        <v>93.74832566539052</v>
+      </c>
+      <c r="M16" t="n">
         <v>454.9529948035832</v>
       </c>
-      <c r="M16" t="n">
-        <v>99.37928411058734</v>
-      </c>
       <c r="N16" t="n">
-        <v>98.30601227191448</v>
+        <v>454.9529948035832</v>
       </c>
       <c r="O16" t="n">
-        <v>454.9529948035832</v>
+        <v>350.1304424879743</v>
       </c>
       <c r="P16" t="n">
-        <v>387.6298801277101</v>
+        <v>71.7145219728539</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.52716128457398</v>
+        <v>193.4296838885124</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>513.472263856376</v>
       </c>
       <c r="K17" t="n">
-        <v>184.8592495641016</v>
+        <v>751.0150948208853</v>
       </c>
       <c r="L17" t="n">
-        <v>235.3913528329556</v>
+        <v>292.0593005887442</v>
       </c>
       <c r="M17" t="n">
         <v>267.1165013318437</v>
@@ -35901,10 +35901,10 @@
         <v>254.8381358330717</v>
       </c>
       <c r="P17" t="n">
-        <v>337.8421248429936</v>
+        <v>211.8354099745968</v>
       </c>
       <c r="Q17" t="n">
-        <v>647.9895061835327</v>
+        <v>151.1724280393557</v>
       </c>
       <c r="R17" t="n">
         <v>227.6930994958135</v>
@@ -35980,10 +35980,10 @@
         <v>197.6212090848235</v>
       </c>
       <c r="P18" t="n">
-        <v>221.5379188452227</v>
+        <v>155.4350860512621</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.71043120574488</v>
+        <v>161.8132639997053</v>
       </c>
       <c r="R18" t="n">
         <v>140.4647457078631</v>
@@ -36050,7 +36050,7 @@
         <v>473.9391272726278</v>
       </c>
       <c r="M19" t="n">
-        <v>517.0918906386902</v>
+        <v>517.0918906386891</v>
       </c>
       <c r="N19" t="n">
         <v>500.3594696879551</v>
@@ -36123,7 +36123,7 @@
         <v>513.472263856376</v>
       </c>
       <c r="K20" t="n">
-        <v>184.8592495641016</v>
+        <v>310.8659644324983</v>
       </c>
       <c r="L20" t="n">
         <v>235.3913528329556</v>
@@ -36138,7 +36138,7 @@
         <v>254.8381358330717</v>
       </c>
       <c r="P20" t="n">
-        <v>337.8421248429926</v>
+        <v>211.8354099745968</v>
       </c>
       <c r="Q20" t="n">
         <v>647.9895061835327</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.77824325046656</v>
+        <v>39.47249157815529</v>
       </c>
       <c r="J21" t="n">
-        <v>67.06385647431637</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K21" t="n">
-        <v>618.8220671175256</v>
+        <v>193.5540887347898</v>
       </c>
       <c r="L21" t="n">
         <v>178.9773894861649</v>
@@ -36223,7 +36223,7 @@
         <v>95.71043120574488</v>
       </c>
       <c r="R21" t="n">
-        <v>33.94403834937238</v>
+        <v>140.4647457078631</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>113.076507828832</v>
+        <v>113.0765078288328</v>
       </c>
       <c r="K22" t="n">
         <v>319.2049818261066</v>
@@ -36357,22 +36357,22 @@
         <v>32.31805849069085</v>
       </c>
       <c r="J23" t="n">
-        <v>117.7861843537233</v>
+        <v>513.472263856376</v>
       </c>
       <c r="K23" t="n">
-        <v>184.8592495641016</v>
+        <v>943.3595149806271</v>
       </c>
       <c r="L23" t="n">
-        <v>1205.968089624468</v>
+        <v>235.3913528329556</v>
       </c>
       <c r="M23" t="n">
         <v>267.1165013318437</v>
       </c>
       <c r="N23" t="n">
-        <v>1205.968089624468</v>
+        <v>550.0601079443719</v>
       </c>
       <c r="O23" t="n">
-        <v>673.6121864354642</v>
+        <v>1145.910559987896</v>
       </c>
       <c r="P23" t="n">
         <v>211.8354099745968</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.77824325046656</v>
+        <v>39.47249157815529</v>
       </c>
       <c r="J24" t="n">
-        <v>67.06385647431637</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K24" t="n">
-        <v>618.8220671175259</v>
+        <v>127.4512559408294</v>
       </c>
       <c r="L24" t="n">
         <v>178.9773894861649</v>
@@ -36457,10 +36457,10 @@
         <v>155.4350860512621</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.71043120574488</v>
+        <v>161.8132639997053</v>
       </c>
       <c r="R24" t="n">
-        <v>33.94403834937238</v>
+        <v>140.4647457078631</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>113.0765078288328</v>
       </c>
       <c r="K25" t="n">
-        <v>319.2049818261056</v>
+        <v>319.2049818261066</v>
       </c>
       <c r="L25" t="n">
         <v>473.9391272726278</v>
@@ -36536,7 +36536,7 @@
         <v>387.6298801277101</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.4296838885124</v>
+        <v>193.4296838885116</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>117.7861843537233</v>
       </c>
       <c r="K26" t="n">
-        <v>184.8592495641016</v>
+        <v>943.3595149806271</v>
       </c>
       <c r="L26" t="n">
-        <v>1205.968089624468</v>
+        <v>1205.968089624469</v>
       </c>
       <c r="M26" t="n">
-        <v>1205.968089624468</v>
+        <v>1205.968089624469</v>
       </c>
       <c r="N26" t="n">
-        <v>1205.968089624468</v>
+        <v>577.9837871646665</v>
       </c>
       <c r="O26" t="n">
         <v>254.8381358330717</v>
@@ -36618,7 +36618,7 @@
         <v>151.1724280393557</v>
       </c>
       <c r="R26" t="n">
-        <v>204.4326399497577</v>
+        <v>73.91667699303457</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.77824325046656</v>
+        <v>39.47249157815529</v>
       </c>
       <c r="J27" t="n">
-        <v>67.06385647431637</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K27" t="n">
         <v>127.4512559408294</v>
@@ -36694,10 +36694,10 @@
         <v>155.4350860512621</v>
       </c>
       <c r="Q27" t="n">
-        <v>587.0812423824418</v>
+        <v>161.8132639997053</v>
       </c>
       <c r="R27" t="n">
-        <v>33.94403834937238</v>
+        <v>140.4647457078631</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>32.31805849069085</v>
       </c>
       <c r="J29" t="n">
-        <v>117.7861843537233</v>
+        <v>513.472263856376</v>
       </c>
       <c r="K29" t="n">
-        <v>943.3595149806271</v>
+        <v>202.8676793787087</v>
       </c>
       <c r="L29" t="n">
-        <v>235.3913528329556</v>
+        <v>1205.968089624469</v>
       </c>
       <c r="M29" t="n">
-        <v>267.1165013318437</v>
+        <v>1205.968089624469</v>
       </c>
       <c r="N29" t="n">
-        <v>1205.968089624468</v>
+        <v>272.1960426169763</v>
       </c>
       <c r="O29" t="n">
-        <v>1145.910559987896</v>
+        <v>254.8381358330717</v>
       </c>
       <c r="P29" t="n">
-        <v>448.4305859413288</v>
+        <v>211.8354099745968</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.1724280393557</v>
+        <v>647.9895061835327</v>
       </c>
       <c r="R29" t="n">
         <v>227.6930994958135</v>
@@ -36910,7 +36910,7 @@
         <v>39.47249157815529</v>
       </c>
       <c r="J30" t="n">
-        <v>67.06385647431637</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K30" t="n">
         <v>127.4512559408294</v>
@@ -36925,16 +36925,16 @@
         <v>220.0124378243776</v>
       </c>
       <c r="O30" t="n">
-        <v>665.2977719338315</v>
+        <v>197.6212090848235</v>
       </c>
       <c r="P30" t="n">
         <v>155.4350860512621</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.71043120574488</v>
+        <v>161.8132639997053</v>
       </c>
       <c r="R30" t="n">
-        <v>33.94403834937238</v>
+        <v>140.4647457078631</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>117.7861843537233</v>
       </c>
       <c r="K32" t="n">
-        <v>184.8592495641016</v>
+        <v>943.3595149806271</v>
       </c>
       <c r="L32" t="n">
-        <v>1205.968089624468</v>
+        <v>235.3913528329556</v>
       </c>
       <c r="M32" t="n">
-        <v>445.4116284263679</v>
+        <v>267.1165013318437</v>
       </c>
       <c r="N32" t="n">
-        <v>1205.968089624468</v>
+        <v>272.1960426169763</v>
       </c>
       <c r="O32" t="n">
         <v>1145.910559987896</v>
       </c>
       <c r="P32" t="n">
-        <v>211.8354099745968</v>
+        <v>964.8443870958662</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.1724280393557</v>
+        <v>568.5306738923111</v>
       </c>
       <c r="R32" t="n">
-        <v>73.91667699303457</v>
+        <v>227.6930994958135</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.77824325046656</v>
+        <v>39.47249157815529</v>
       </c>
       <c r="J33" t="n">
-        <v>67.06385647431637</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K33" t="n">
-        <v>127.4512559408294</v>
+        <v>193.5540887347895</v>
       </c>
       <c r="L33" t="n">
         <v>178.9773894861649</v>
@@ -37162,7 +37162,7 @@
         <v>220.0124378243776</v>
       </c>
       <c r="O33" t="n">
-        <v>582.4713129030293</v>
+        <v>197.6212090848235</v>
       </c>
       <c r="P33" t="n">
         <v>155.4350860512621</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>113.5623267443115</v>
+        <v>113.5623267443116</v>
       </c>
       <c r="K34" t="n">
-        <v>319.6908007415859</v>
+        <v>319.6908007415853</v>
       </c>
       <c r="L34" t="n">
         <v>474.4249461881066</v>
@@ -37247,7 +37247,7 @@
         <v>388.1156990431888</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.9155028039911</v>
+        <v>193.9155028039912</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>32.31805849069085</v>
       </c>
       <c r="J35" t="n">
-        <v>513.472263856376</v>
+        <v>117.7861843537233</v>
       </c>
       <c r="K35" t="n">
-        <v>310.8659644324966</v>
+        <v>751.0150948208855</v>
       </c>
       <c r="L35" t="n">
         <v>235.3913528329556</v>
@@ -37326,7 +37326,7 @@
         <v>211.8354099745968</v>
       </c>
       <c r="Q35" t="n">
-        <v>647.9895061835327</v>
+        <v>603.526455297797</v>
       </c>
       <c r="R35" t="n">
         <v>227.6930994958135</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.77824325046656</v>
+        <v>39.47249157815529</v>
       </c>
       <c r="J36" t="n">
-        <v>67.06385647431637</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K36" t="n">
         <v>127.4512559408294</v>
       </c>
       <c r="L36" t="n">
-        <v>670.3482006628612</v>
+        <v>178.9773894861649</v>
       </c>
       <c r="M36" t="n">
         <v>212.0354354274112</v>
@@ -37405,10 +37405,10 @@
         <v>155.4350860512621</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.71043120574488</v>
+        <v>161.8132639997053</v>
       </c>
       <c r="R36" t="n">
-        <v>33.94403834937238</v>
+        <v>140.4647457078631</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37478,10 +37478,10 @@
         <v>500.3594696879551</v>
       </c>
       <c r="O37" t="n">
-        <v>468.984793777918</v>
+        <v>468.9847937779199</v>
       </c>
       <c r="P37" t="n">
-        <v>387.6298801277101</v>
+        <v>387.6298801277097</v>
       </c>
       <c r="Q37" t="n">
         <v>193.4296838885124</v>
@@ -37554,7 +37554,7 @@
         <v>267.1165013318437</v>
       </c>
       <c r="N38" t="n">
-        <v>751.0150948208853</v>
+        <v>398.2027574853731</v>
       </c>
       <c r="O38" t="n">
         <v>254.8381358330717</v>
@@ -37563,7 +37563,7 @@
         <v>211.8354099745968</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.1771688480194</v>
+        <v>647.9895061835327</v>
       </c>
       <c r="R38" t="n">
         <v>227.6930994958135</v>
@@ -37624,10 +37624,10 @@
         <v>362.116879170873</v>
       </c>
       <c r="K39" t="n">
-        <v>127.4512559408294</v>
+        <v>193.5540887347898</v>
       </c>
       <c r="L39" t="n">
-        <v>245.0802222801249</v>
+        <v>178.9773894861649</v>
       </c>
       <c r="M39" t="n">
         <v>212.0354354274112</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>113.0765078288316</v>
+        <v>113.0765078288328</v>
       </c>
       <c r="K40" t="n">
         <v>319.2049818261066</v>
@@ -37782,7 +37782,7 @@
         <v>117.7861843537233</v>
       </c>
       <c r="K41" t="n">
-        <v>184.8592495641018</v>
+        <v>184.8592495641016</v>
       </c>
       <c r="L41" t="n">
         <v>235.3913528329556</v>
@@ -37803,7 +37803,7 @@
         <v>151.1724280393557</v>
       </c>
       <c r="R41" t="n">
-        <v>73.91667699303457</v>
+        <v>73.91667699303507</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>39.47249157815529</v>
       </c>
       <c r="J42" t="n">
-        <v>68.97714836699487</v>
+        <v>362.116879170873</v>
       </c>
       <c r="K42" t="n">
-        <v>127.4512559408294</v>
+        <v>193.5540887347897</v>
       </c>
       <c r="L42" t="n">
         <v>178.9773894861649</v>
@@ -37879,7 +37879,7 @@
         <v>155.4350860512621</v>
       </c>
       <c r="Q42" t="n">
-        <v>454.9529948035834</v>
+        <v>95.71043120574488</v>
       </c>
       <c r="R42" t="n">
         <v>140.4647457078631</v>
@@ -37940,25 +37940,25 @@
         <v>34.36770313366021</v>
       </c>
       <c r="K43" t="n">
-        <v>319.2049818261066</v>
+        <v>69.42456857961966</v>
       </c>
       <c r="L43" t="n">
-        <v>454.9529948035834</v>
+        <v>220.5371006488928</v>
       </c>
       <c r="M43" t="n">
-        <v>174.5011473301362</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="N43" t="n">
-        <v>98.30601227191448</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="O43" t="n">
-        <v>454.9529948035834</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="P43" t="n">
         <v>71.7145219728539</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.4296838885124</v>
+        <v>40.52716128457398</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>117.7861843537233</v>
       </c>
       <c r="K44" t="n">
-        <v>184.8592495641016</v>
+        <v>184.8592495641023</v>
       </c>
       <c r="L44" t="n">
         <v>235.3913528329556</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.77824325046656</v>
+        <v>39.47249157815529</v>
       </c>
       <c r="J45" t="n">
         <v>67.06385647431637</v>
@@ -38104,19 +38104,19 @@
         <v>178.9773894861649</v>
       </c>
       <c r="M45" t="n">
-        <v>454.9529948035834</v>
+        <v>320.4694346785807</v>
       </c>
       <c r="N45" t="n">
-        <v>454.9529948035834</v>
+        <v>220.0124378243776</v>
       </c>
       <c r="O45" t="n">
-        <v>211.1339039061419</v>
+        <v>197.6212090848235</v>
       </c>
       <c r="P45" t="n">
         <v>155.4350860512621</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.71043120574488</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="R45" t="n">
         <v>33.94403834937238</v>
@@ -38177,25 +38177,25 @@
         <v>34.36770313366021</v>
       </c>
       <c r="K46" t="n">
-        <v>319.2049818261066</v>
+        <v>69.42456857961966</v>
       </c>
       <c r="L46" t="n">
-        <v>454.9529948035834</v>
+        <v>220.5371006488928</v>
       </c>
       <c r="M46" t="n">
-        <v>454.9529948035834</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="N46" t="n">
-        <v>98.30601227191448</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="O46" t="n">
-        <v>87.467294481755</v>
+        <v>454.9529948035835</v>
       </c>
       <c r="P46" t="n">
-        <v>158.748374821235</v>
+        <v>71.7145219728539</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.4296838885124</v>
+        <v>40.52716128457398</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
